--- a/src/test/resources/TestData/inputData.xlsx
+++ b/src/test/resources/TestData/inputData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\train\Automation\HS_Cucumber-main\HomeserveUSA\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\BAU_Regression\BAU_Regression\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D41E868-C9F3-479F-B8CF-8AB75A4AE874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A75C6C-E615-456F-9DC8-52A068C07BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C4BD471F-CC96-4C0B-AADD-EAF5A4C4939D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23100" windowHeight="11388" activeTab="1" xr2:uid="{C4BD471F-CC96-4C0B-AADD-EAF5A4C4939D}"/>
   </bookViews>
   <sheets>
     <sheet name="inputData" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">inputData!$A$1:$T$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">URL!$A$1:$B$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">URL!$A$1:$B$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="208">
   <si>
     <t>Test ID</t>
   </si>
@@ -650,6 +650,21 @@
   </si>
   <si>
     <t>Paperless</t>
+  </si>
+  <si>
+    <t>HomeserveHome</t>
+  </si>
+  <si>
+    <t>https://www.reghomeserve.com/en-us/?ncr=true</t>
+  </si>
+  <si>
+    <t>TC_SANITY_001</t>
+  </si>
+  <si>
+    <t>Validate all the links in homepage to check for broken links</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -746,7 +761,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -834,12 +849,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -867,6 +906,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1202,11 +1247,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFA7E03-C988-479B-B08E-B46A33901233}">
-  <dimension ref="A1:U49"/>
+  <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F22" sqref="F22"/>
+      <selection pane="topRight" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3782,77 +3827,77 @@
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2" t="s">
+      <c r="C47" s="21"/>
+      <c r="D47" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="F47" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G47" s="8" t="s">
+      <c r="F47" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G47" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="I47" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="J47" s="4" t="s">
+      <c r="J47" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="M47" s="4" t="s">
+      <c r="K47" s="22"/>
+      <c r="L47" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="M47" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="N47" s="8" t="s">
+      <c r="N47" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="O47" s="8" t="s">
+      <c r="O47" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="P47" s="8" t="s">
+      <c r="P47" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="Q47" s="8" t="s">
+      <c r="Q47" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="R47" s="5" t="s">
+      <c r="R47" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="S47" s="5" t="s">
+      <c r="S47" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="T47" s="19" t="s">
+      <c r="T47" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="U47" s="5" t="s">
+      <c r="U47" s="25" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="C48" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>101</v>
       </c>
       <c r="E48" s="4" t="s">
@@ -3864,7 +3909,7 @@
       <c r="G48" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="4" t="s">
         <v>105</v>
       </c>
       <c r="I48" s="4" t="s">
@@ -3906,16 +3951,16 @@
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="C49" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>104</v>
       </c>
       <c r="E49" s="4" t="s">
@@ -3927,7 +3972,7 @@
       <c r="G49" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="4" t="s">
         <v>105</v>
       </c>
       <c r="I49" s="4" t="s">
@@ -3966,6 +4011,71 @@
       </c>
       <c r="U49" s="5" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="R50" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="S50" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="T50" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="U50" s="4" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3977,10 +4087,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F731B1-F395-44C8-A5FA-27912FB095EB}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4013,90 +4123,90 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>175</v>
+        <v>203</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>137</v>
+        <v>14</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>175</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>124</v>
+        <v>137</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>125</v>
+        <v>34</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>127</v>
+        <v>141</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>128</v>
+        <v>176</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -4107,231 +4217,243 @@
         <v>142</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B15" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B16" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="11" t="s">
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B18" s="11" t="s">
         <v>149</v>
-      </c>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="11" t="s">
-        <v>150</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>155</v>
       </c>
       <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B27" s="11" t="s">
         <v>158</v>
-      </c>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="11" t="s">
-        <v>160</v>
       </c>
       <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
-      <c r="B30" s="10" t="s">
-        <v>139</v>
+      <c r="B30" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C31" s="5"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="10" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="C32" s="5"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="14" t="s">
-        <v>163</v>
+      <c r="B33" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="C33" s="5"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C34" s="5"/>
+      <c r="C35" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B34" xr:uid="{74F731B1-F395-44C8-A5FA-27912FB095EB}"/>
+  <autoFilter ref="A1:B35" xr:uid="{74F731B1-F395-44C8-A5FA-27912FB095EB}"/>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" xr:uid="{74ABD3DF-CF3D-42EA-9CFF-86C14D400C7B}"/>
-    <hyperlink ref="B14" r:id="rId2" display="https://www.reghomeserve.com/sc/mail/firstenergy-fundle" xr:uid="{AD8FB8C2-15C4-4D6F-A210-EF42DC585205}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{23C72C45-07E2-4339-8161-4D4A291A3480}"/>
-    <hyperlink ref="B8" r:id="rId4" display="https://preprod.slwofa.com/mail/lasanitation" xr:uid="{01FF8113-D8EB-48D2-9B71-50BBBCA61BA5}"/>
-    <hyperlink ref="B9" r:id="rId5" display="https://www.reghomeserve.com/sc/mail/buffalowaternipcnew" xr:uid="{9C4F3023-4BB6-4851-ADF7-BB0B9087D372}"/>
-    <hyperlink ref="B6" location="MTW_NIPC!A1" display="MTW_NIPC!A1" xr:uid="{94A2B24C-DFA3-4864-A388-C2FE67D2B4A0}"/>
-    <hyperlink ref="B10" location="MTW_Regular!A1" display="MTW_Regular!A1" xr:uid="{6FD6BC41-D7C9-4F6C-8F60-C2C3CA14A0F8}"/>
-    <hyperlink ref="B11" location="MTW_Regular!A1" display="MTW_Regular!A1" xr:uid="{8AD7AB3A-74C5-4A98-8C18-13EE5049A030}"/>
-    <hyperlink ref="B4" location="SLWA!A1" display="SLWA!A1" xr:uid="{907FA7E2-AC6B-4595-A31F-343F62B96378}"/>
-    <hyperlink ref="B2" r:id="rId6" xr:uid="{D51DB6C3-7C46-47CB-AB8C-D1E1F0CB4FE2}"/>
-    <hyperlink ref="B5" location="SLWC!A1" display="SLWC!A1" xr:uid="{934C7837-F3F5-4735-AD16-72E13190A180}"/>
-    <hyperlink ref="B15" r:id="rId7" xr:uid="{993C9669-F345-4AA6-93CA-F34C7AC1CF73}"/>
-    <hyperlink ref="B16" r:id="rId8" xr:uid="{42F57244-0C52-4995-ADB3-9C89BD1BD6B7}"/>
-    <hyperlink ref="B17" r:id="rId9" xr:uid="{F11D9593-6C33-4EC4-B906-83FF61C41959}"/>
-    <hyperlink ref="B18" location="Landing_Pages!A1" display="Landing_Pages!A1" xr:uid="{3BF5AD64-D6C9-45DE-A3DB-73538B41055D}"/>
-    <hyperlink ref="B19" r:id="rId10" xr:uid="{89D1732F-95A1-4909-B2A4-E1F6924D670D}"/>
-    <hyperlink ref="B20" location="Landing_Pages!A1" display="Landing_Pages!A1" xr:uid="{E3FFBD4A-6299-48BC-AE41-CE5A2AC77EAD}"/>
-    <hyperlink ref="B21" r:id="rId11" xr:uid="{B524328F-D2BC-43F7-9336-22C4D13E6231}"/>
-    <hyperlink ref="B22" r:id="rId12" xr:uid="{AB16D659-A07A-46E4-B570-71BBDA57EDAA}"/>
-    <hyperlink ref="B23" r:id="rId13" xr:uid="{00EDA3E7-F7F9-447C-9E55-43030810D1EE}"/>
-    <hyperlink ref="B24" location="STS_CNPEE!A1" display="STS_CNPEE!A1" xr:uid="{1BA1C733-89E6-481F-B709-368006107BC6}"/>
-    <hyperlink ref="B25" location="STS_CNPEG!A1" display="STS_CNPEG!A1" xr:uid="{7366C463-7134-41C2-8817-9495FC636056}"/>
-    <hyperlink ref="B26" location="Techupsell-Albama!A1" display="Techupsell-Albama!A1" xr:uid="{5C84A0D3-3570-4CE7-B77A-EA4D516C113F}"/>
-    <hyperlink ref="B27" location="Tech_App!A1" display="Tech_App!A1" xr:uid="{20507C38-686C-4071-A626-2D67B41CD89A}"/>
-    <hyperlink ref="B28" location="Techupsell!A1" display="Techupsell!A1" xr:uid="{331BB979-42ED-448F-BF85-450E5550FC3F}"/>
-    <hyperlink ref="B29" location="Techupsell_FPL!A1" display="Techupsell_FPL!A1" xr:uid="{E35CA4BE-F1AD-411F-B3EC-2AC78D25A613}"/>
-    <hyperlink ref="B30" location="CCPA!A1" display="CCPA!A1" xr:uid="{D439AEA1-F8C0-4FA7-9E10-E90D5D3DADF8}"/>
-    <hyperlink ref="B31" location="CCPA!A1" display="CCPA!A1" xr:uid="{DF9404B4-5150-4CD4-9C75-28A9558DE473}"/>
-    <hyperlink ref="B32" r:id="rId14" display="https://www.reghomeserve.com/us/whqe" xr:uid="{4A56A19F-CDE8-48DE-ACA9-F3E5DA0D73C4}"/>
-    <hyperlink ref="B33" location="Partner Portal!A1" display="Partner Portal!A1" xr:uid="{F609080B-E38C-4402-A9B0-E7E7001B14BD}"/>
-    <hyperlink ref="B3" r:id="rId15" xr:uid="{314A0927-1471-4219-9F92-31597DD504FD}"/>
-    <hyperlink ref="B12" r:id="rId16" xr:uid="{8EB57EB5-EE83-42C2-B0BB-CE85AEF20287}"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{74ABD3DF-CF3D-42EA-9CFF-86C14D400C7B}"/>
+    <hyperlink ref="B15" r:id="rId2" display="https://www.reghomeserve.com/sc/mail/firstenergy-fundle" xr:uid="{AD8FB8C2-15C4-4D6F-A210-EF42DC585205}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{23C72C45-07E2-4339-8161-4D4A291A3480}"/>
+    <hyperlink ref="B9" r:id="rId4" display="https://preprod.slwofa.com/mail/lasanitation" xr:uid="{01FF8113-D8EB-48D2-9B71-50BBBCA61BA5}"/>
+    <hyperlink ref="B10" r:id="rId5" display="https://www.reghomeserve.com/sc/mail/buffalowaternipcnew" xr:uid="{9C4F3023-4BB6-4851-ADF7-BB0B9087D372}"/>
+    <hyperlink ref="B7" location="MTW_NIPC!A1" display="MTW_NIPC!A1" xr:uid="{94A2B24C-DFA3-4864-A388-C2FE67D2B4A0}"/>
+    <hyperlink ref="B11" location="MTW_Regular!A1" display="MTW_Regular!A1" xr:uid="{6FD6BC41-D7C9-4F6C-8F60-C2C3CA14A0F8}"/>
+    <hyperlink ref="B12" location="MTW_Regular!A1" display="MTW_Regular!A1" xr:uid="{8AD7AB3A-74C5-4A98-8C18-13EE5049A030}"/>
+    <hyperlink ref="B5" r:id="rId6" xr:uid="{907FA7E2-AC6B-4595-A31F-343F62B96378}"/>
+    <hyperlink ref="B2" r:id="rId7" xr:uid="{D51DB6C3-7C46-47CB-AB8C-D1E1F0CB4FE2}"/>
+    <hyperlink ref="B6" location="SLWC!A1" display="SLWC!A1" xr:uid="{934C7837-F3F5-4735-AD16-72E13190A180}"/>
+    <hyperlink ref="B16" r:id="rId8" xr:uid="{993C9669-F345-4AA6-93CA-F34C7AC1CF73}"/>
+    <hyperlink ref="B17" r:id="rId9" xr:uid="{42F57244-0C52-4995-ADB3-9C89BD1BD6B7}"/>
+    <hyperlink ref="B18" r:id="rId10" xr:uid="{F11D9593-6C33-4EC4-B906-83FF61C41959}"/>
+    <hyperlink ref="B19" location="Landing_Pages!A1" display="Landing_Pages!A1" xr:uid="{3BF5AD64-D6C9-45DE-A3DB-73538B41055D}"/>
+    <hyperlink ref="B20" r:id="rId11" xr:uid="{89D1732F-95A1-4909-B2A4-E1F6924D670D}"/>
+    <hyperlink ref="B21" location="Landing_Pages!A1" display="Landing_Pages!A1" xr:uid="{E3FFBD4A-6299-48BC-AE41-CE5A2AC77EAD}"/>
+    <hyperlink ref="B22" r:id="rId12" xr:uid="{B524328F-D2BC-43F7-9336-22C4D13E6231}"/>
+    <hyperlink ref="B23" r:id="rId13" xr:uid="{AB16D659-A07A-46E4-B570-71BBDA57EDAA}"/>
+    <hyperlink ref="B24" r:id="rId14" xr:uid="{00EDA3E7-F7F9-447C-9E55-43030810D1EE}"/>
+    <hyperlink ref="B25" location="STS_CNPEE!A1" display="STS_CNPEE!A1" xr:uid="{1BA1C733-89E6-481F-B709-368006107BC6}"/>
+    <hyperlink ref="B26" location="STS_CNPEG!A1" display="STS_CNPEG!A1" xr:uid="{7366C463-7134-41C2-8817-9495FC636056}"/>
+    <hyperlink ref="B27" location="Techupsell-Albama!A1" display="Techupsell-Albama!A1" xr:uid="{5C84A0D3-3570-4CE7-B77A-EA4D516C113F}"/>
+    <hyperlink ref="B28" location="Tech_App!A1" display="Tech_App!A1" xr:uid="{20507C38-686C-4071-A626-2D67B41CD89A}"/>
+    <hyperlink ref="B29" location="Techupsell!A1" display="Techupsell!A1" xr:uid="{331BB979-42ED-448F-BF85-450E5550FC3F}"/>
+    <hyperlink ref="B30" location="Techupsell_FPL!A1" display="Techupsell_FPL!A1" xr:uid="{E35CA4BE-F1AD-411F-B3EC-2AC78D25A613}"/>
+    <hyperlink ref="B31" location="CCPA!A1" display="CCPA!A1" xr:uid="{D439AEA1-F8C0-4FA7-9E10-E90D5D3DADF8}"/>
+    <hyperlink ref="B32" location="CCPA!A1" display="CCPA!A1" xr:uid="{DF9404B4-5150-4CD4-9C75-28A9558DE473}"/>
+    <hyperlink ref="B33" r:id="rId15" display="https://www.reghomeserve.com/us/whqe" xr:uid="{4A56A19F-CDE8-48DE-ACA9-F3E5DA0D73C4}"/>
+    <hyperlink ref="B34" location="Partner Portal!A1" display="Partner Portal!A1" xr:uid="{F609080B-E38C-4402-A9B0-E7E7001B14BD}"/>
+    <hyperlink ref="B4" r:id="rId16" xr:uid="{314A0927-1471-4219-9F92-31597DD504FD}"/>
+    <hyperlink ref="B13" r:id="rId17" xr:uid="{8EB57EB5-EE83-42C2-B0BB-CE85AEF20287}"/>
+    <hyperlink ref="B3" r:id="rId18" xr:uid="{17500D8F-EF7E-4F10-BA1D-AB299ECD5413}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId19"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/inputData.xlsx
+++ b/src/test/resources/TestData/inputData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\BAU_Regression\BAU_Regression\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A75C6C-E615-456F-9DC8-52A068C07BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963DB359-D558-43C1-BF00-7845CAB069DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23100" windowHeight="11388" activeTab="1" xr2:uid="{C4BD471F-CC96-4C0B-AADD-EAF5A4C4939D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23100" windowHeight="11388" xr2:uid="{C4BD471F-CC96-4C0B-AADD-EAF5A4C4939D}"/>
   </bookViews>
   <sheets>
     <sheet name="inputData" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="211">
   <si>
     <t>Test ID</t>
   </si>
@@ -665,6 +665,15 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>TC_049</t>
+  </si>
+  <si>
+    <t>Complete a sale in HomeServe kandela</t>
+  </si>
+  <si>
+    <t>19146</t>
   </si>
 </sst>
 </file>
@@ -761,7 +770,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -873,12 +882,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -912,6 +939,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1247,11 +1279,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFA7E03-C988-479B-B08E-B46A33901233}">
-  <dimension ref="A1:U50"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D60" sqref="D60"/>
+      <selection pane="topRight" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4032,50 +4064,113 @@
       <c r="F50" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G50" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H50" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="I50" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="J50" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="K50" s="4" t="s">
+      <c r="K50" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="L50" s="4" t="s">
+      <c r="L50" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="M50" s="4" t="s">
+      <c r="M50" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="N50" s="4" t="s">
+      <c r="N50" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="O50" s="4" t="s">
+      <c r="O50" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="P50" s="4" t="s">
+      <c r="P50" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="Q50" s="4" t="s">
+      <c r="Q50" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="R50" s="4" t="s">
+      <c r="R50" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="S50" s="4" t="s">
+      <c r="S50" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="T50" s="4" t="s">
+      <c r="T50" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="U50" s="4" t="s">
+      <c r="U50" s="31" t="s">
         <v>207</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A51" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F51" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="O51" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P51" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q51" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="R51" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="S51" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="T51" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="U51" s="5" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -4089,8 +4184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F731B1-F395-44C8-A5FA-27912FB095EB}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/TestData/inputData.xlsx
+++ b/src/test/resources/TestData/inputData.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\BAU_Regression\BAU_Regression\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\train\Automation\BAU\BAU_Regression\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963DB359-D558-43C1-BF00-7845CAB069DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9038CE1-2E8F-4838-A949-80DBCED597C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23100" windowHeight="11388" xr2:uid="{C4BD471F-CC96-4C0B-AADD-EAF5A4C4939D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C4BD471F-CC96-4C0B-AADD-EAF5A4C4939D}"/>
   </bookViews>
   <sheets>
     <sheet name="inputData" sheetId="1" r:id="rId1"/>
     <sheet name="URL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">inputData!$A$1:$T$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">URL!$A$1:$B$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">inputData!$A$1:$T$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">URL!$A$1:$D$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="333">
   <si>
     <t>Test ID</t>
   </si>
@@ -460,12 +460,6 @@
     <t>https://preprod.slwofc.ca</t>
   </si>
   <si>
-    <t>https://www.reghomeserve.com/sc/dataprivacy  </t>
-  </si>
-  <si>
-    <t>https://www.reghomeserve.com/sc/data-privacy-form</t>
-  </si>
-  <si>
     <t>https://www.reghomeserve.com/sc/mail/sanjose </t>
   </si>
   <si>
@@ -481,206 +475,578 @@
     <t>https://preprod.slwofa.com/mail/lasanitation </t>
   </si>
   <si>
+    <t>https://www.reghomeserve.com/sc/mail/kypower-tabs </t>
+  </si>
+  <si>
+    <t>https://www.reghomeserve.com/sc/mail/firstenergy-fundle </t>
+  </si>
+  <si>
+    <t>https://www.reghomeserve.com/sc/mail/apco-carousel</t>
+  </si>
+  <si>
+    <t>https://www.reghomeserve.com/sts/kandela</t>
+  </si>
+  <si>
+    <t>https://www.reghomeserve.com/sts/cnpee</t>
+  </si>
+  <si>
+    <t>https://www.reghomeserve.com/sts/cnpgeneral</t>
+  </si>
+  <si>
+    <t>https://preprod-techupsell.homeserveusa.com/alabama</t>
+  </si>
+  <si>
+    <t>https://preprod-techupsell.homeserveusa.com  </t>
+  </si>
+  <si>
+    <t>https://preprod-fplhometech.homeserveusa.com  </t>
+  </si>
+  <si>
+    <t>ZipCode</t>
+  </si>
+  <si>
+    <t>charlotte-gritty</t>
+  </si>
+  <si>
+    <t>apco-carousel</t>
+  </si>
+  <si>
+    <t>kandela</t>
+  </si>
+  <si>
+    <t>cnpee</t>
+  </si>
+  <si>
+    <t>cnpgeneral</t>
+  </si>
+  <si>
+    <t>alabama</t>
+  </si>
+  <si>
+    <t>SanityPack</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>https://www.reghomeserve.com/?ncr=true</t>
+  </si>
+  <si>
+    <t>https://www.reghomeserve.com/sc/mail/homeserve-ce</t>
+  </si>
+  <si>
+    <t>Dean Heandreson</t>
+  </si>
+  <si>
+    <t>021912915</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto </t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Chapmans Lane</t>
+  </si>
+  <si>
+    <t>ProductCount</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>4409845223</t>
+  </si>
+  <si>
+    <t>ExpiryDate</t>
+  </si>
+  <si>
+    <t>122027</t>
+  </si>
+  <si>
+    <t>CardNumber</t>
+  </si>
+  <si>
+    <t>4485030303245081</t>
+  </si>
+  <si>
+    <t>Complete a Quarterly sale in HomeServe with payment type as Credit or Debit Card</t>
+  </si>
+  <si>
+    <t>Complete a Annually sale in HomeServe with payment type as Credit or Debit Card</t>
+  </si>
+  <si>
+    <t>Complete Annually sale in Homeserve with PaymetType as Checking Account</t>
+  </si>
+  <si>
+    <t>AccountNumber</t>
+  </si>
+  <si>
+    <t>108345613215</t>
+  </si>
+  <si>
+    <t>Account Number</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Paperless</t>
+  </si>
+  <si>
+    <t>HomeserveHome</t>
+  </si>
+  <si>
+    <t>TC_SANITY_001</t>
+  </si>
+  <si>
+    <t>Validate all the links in homepage to check for broken links</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>TC_049</t>
+  </si>
+  <si>
+    <t>19146</t>
+  </si>
+  <si>
+    <t>TC_050</t>
+  </si>
+  <si>
+    <t>28411</t>
+  </si>
+  <si>
+    <t>TC_051</t>
+  </si>
+  <si>
+    <t>Complete a sale in HomeServe charlotte-gritty with PaymetType as Checking Account</t>
+  </si>
+  <si>
+    <t>Complete a sale in HomeServe charlotte-gritty with PaymetType as Credit or debit card</t>
+  </si>
+  <si>
+    <t>Complete a sale in HomeServe kandela with PaymetType as Credit or debit card</t>
+  </si>
+  <si>
+    <t>Complete a sale in HomeServe kingston with PaymetType as Credit or debit card</t>
+  </si>
+  <si>
+    <t>kingston</t>
+  </si>
+  <si>
+    <t>https://preprod.slwofc.ca/mail/kingston</t>
+  </si>
+  <si>
+    <t>k7p 3a8</t>
+  </si>
+  <si>
+    <t>TC_052</t>
+  </si>
+  <si>
+    <t>20176</t>
+  </si>
+  <si>
+    <t>TC_053</t>
+  </si>
+  <si>
+    <t>121000358</t>
+  </si>
+  <si>
+    <t>101100045</t>
+  </si>
+  <si>
+    <t>4024007168458700</t>
+  </si>
+  <si>
+    <t>https://www.reghomeserve.com/en-us/lp/servline-water</t>
+  </si>
+  <si>
+    <t>servline-water</t>
+  </si>
+  <si>
+    <t>TC_054</t>
+  </si>
+  <si>
+    <t>https://www.gethomeserve.ca</t>
+  </si>
+  <si>
+    <t>homeserve-ca</t>
+  </si>
+  <si>
+    <t>Complete a sale in HomeServe ca with PaymetType as Credit or debit card</t>
+  </si>
+  <si>
+    <t>t2e0h2</t>
+  </si>
+  <si>
+    <t>4916703862936460</t>
+  </si>
+  <si>
+    <t>William James</t>
+  </si>
+  <si>
+    <t>Chapmans Street</t>
+  </si>
+  <si>
+    <t>TC_055</t>
+  </si>
+  <si>
+    <t>TC_056</t>
+  </si>
+  <si>
+    <t>TC_057</t>
+  </si>
+  <si>
+    <t>TC_058</t>
+  </si>
+  <si>
+    <t>TC_059</t>
+  </si>
+  <si>
+    <t>TC_060</t>
+  </si>
+  <si>
+    <t>TC_061</t>
+  </si>
+  <si>
+    <t>TC_062</t>
+  </si>
+  <si>
+    <t>TC_063</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>39503</t>
+  </si>
+  <si>
+    <t>Complete a sale in servline-water with PaymetType as Credit or debit card</t>
+  </si>
+  <si>
+    <t>Complete a sale in cnpee with PaymetType as onBill</t>
+  </si>
+  <si>
+    <t>74884</t>
+  </si>
+  <si>
+    <t>39110</t>
+  </si>
+  <si>
+    <t>Complete a sale in cnpgeneral with PaymetType as onBill</t>
+  </si>
+  <si>
+    <t>1023456789</t>
+  </si>
+  <si>
+    <t>techupsell</t>
+  </si>
+  <si>
+    <t>fplhometech</t>
+  </si>
+  <si>
+    <t>35004</t>
+  </si>
+  <si>
+    <t>18224</t>
+  </si>
+  <si>
+    <t>32927</t>
+  </si>
+  <si>
+    <t>Complete a sale in alabama with PaymetType as Credit or debit card</t>
+  </si>
+  <si>
+    <t>Complete a sale in techupsell with PaymetType as Credit or debit card</t>
+  </si>
+  <si>
+    <t>Complete a sale in fplhometech with PaymetType as onbill</t>
+  </si>
+  <si>
+    <t>4532066489458410</t>
+  </si>
+  <si>
+    <t>https://www.reghomeserve.com/en-us/lp/mail/AlabamaPower-Postcard-50</t>
+  </si>
+  <si>
+    <t>alabamaPower</t>
+  </si>
+  <si>
+    <t>https://www.reghomeserve.com/en-us/clp/display/pk-yellow-no-redirect/</t>
+  </si>
+  <si>
+    <t>pk-yellow-no-redirect</t>
+  </si>
+  <si>
+    <t>Complete a sale in pk-yellow-no-redirect with PaymetType as Credit or debit card</t>
+  </si>
+  <si>
+    <t>Complete a sale in alabamaPower with PaymetType as Credit or debit card</t>
+  </si>
+  <si>
     <t>https://preprod.slwofa.com/mail/arlington-choice</t>
   </si>
   <si>
-    <t>https://www.reghomeserve.com/sc/mail/kypower-tabs </t>
-  </si>
-  <si>
-    <t>https://www.reghomeserve.com/sc/mail/firstenergy-fundle </t>
-  </si>
-  <si>
-    <t>https://www.reghomeserve.com/sc/mail/apco-carousel</t>
-  </si>
-  <si>
-    <t>https://www.reghomeserve.com/en-us/lp/email/wh1</t>
-  </si>
-  <si>
-    <t>https://www.reghomeserve.com/en-us/lp/email/springp50a</t>
-  </si>
-  <si>
-    <t>https://www.reghomeserve.com/en-us/lp/display/discount-offer</t>
-  </si>
-  <si>
-    <t>https://www.reghomeserve.com/en-us/lp/ppc/covid  </t>
-  </si>
-  <si>
-    <t>https://jamstack-contentful-stg.netlify.app/en-us/clp/display/pk-yellow-no-redirect/</t>
-  </si>
-  <si>
-    <t>https://www.reghomeserve.com/sts/kandela</t>
-  </si>
-  <si>
-    <t>https://www.reghomeserve.com/sts/cnpee</t>
-  </si>
-  <si>
-    <t>https://www.reghomeserve.com/sts/cnpgeneral</t>
-  </si>
-  <si>
-    <t>https://preprod-techupsell.homeserveusa.com/alabama</t>
-  </si>
-  <si>
-    <t>https://www.reghomeserve.com/us/whqe </t>
-  </si>
-  <si>
-    <t>https://preprod-techselling.homeserveusa.com </t>
-  </si>
-  <si>
-    <t>https://preprod-techupsell.homeserveusa.com  </t>
-  </si>
-  <si>
-    <t>https://preprod-fplhometech.homeserveusa.com  </t>
-  </si>
-  <si>
-    <t>https://preprod-partnerportal.homeserveusa.com/ </t>
-  </si>
-  <si>
-    <t>https://preprod-cms.homeserveusa.com/sitecore/ </t>
-  </si>
-  <si>
-    <t>ZipCode</t>
-  </si>
-  <si>
-    <t>charlotte-gritty</t>
-  </si>
-  <si>
-    <t>apco-carousel</t>
-  </si>
-  <si>
-    <t>kandela</t>
-  </si>
-  <si>
-    <t>cnpee</t>
-  </si>
-  <si>
-    <t>cnpgeneral</t>
-  </si>
-  <si>
-    <t>alabama</t>
-  </si>
-  <si>
-    <t>SanityPack</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>https://www.reghomeserve.com/?ncr=true</t>
-  </si>
-  <si>
-    <t>https://www.reghomeserve.com/sc/mail/homeserve-ce</t>
-  </si>
-  <si>
-    <t>https://preprod.slwofc.ca/mail/ottawa</t>
-  </si>
-  <si>
-    <t>https://www.reghomeserve.com/sc/mail/wvwachoice</t>
-  </si>
-  <si>
-    <t>Dean Heandreson</t>
-  </si>
-  <si>
-    <t>021912915</t>
-  </si>
-  <si>
-    <t>header</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auto </t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>PhoneNumber</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Chapmans Lane</t>
-  </si>
-  <si>
-    <t>ProductCount</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>4409845223</t>
-  </si>
-  <si>
-    <t>ExpiryDate</t>
-  </si>
-  <si>
-    <t>122027</t>
-  </si>
-  <si>
-    <t>CardNumber</t>
-  </si>
-  <si>
-    <t>4485030303245081</t>
-  </si>
-  <si>
-    <t>Complete a Quarterly sale in HomeServe with payment type as Credit or Debit Card</t>
-  </si>
-  <si>
-    <t>Complete a Annually sale in HomeServe with payment type as Credit or Debit Card</t>
-  </si>
-  <si>
-    <t>Complete Annually sale in Homeserve with PaymetType as Checking Account</t>
-  </si>
-  <si>
-    <t>AccountNumber</t>
-  </si>
-  <si>
-    <t>108345613215</t>
-  </si>
-  <si>
-    <t>Account Number</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>Paperless</t>
-  </si>
-  <si>
-    <t>HomeserveHome</t>
-  </si>
-  <si>
-    <t>https://www.reghomeserve.com/en-us/?ncr=true</t>
-  </si>
-  <si>
-    <t>TC_SANITY_001</t>
-  </si>
-  <si>
-    <t>Validate all the links in homepage to check for broken links</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>TC_049</t>
-  </si>
-  <si>
-    <t>Complete a sale in HomeServe kandela</t>
-  </si>
-  <si>
-    <t>19146</t>
+    <t>https://preprod.slwofc.ca/mail/ottawa-french </t>
+  </si>
+  <si>
+    <t>Complete a sale in pk-yellow-no-redirect with PaymetType as Checking Account</t>
+  </si>
+  <si>
+    <t>37421</t>
+  </si>
+  <si>
+    <t>'4539039859305500</t>
+  </si>
+  <si>
+    <t>5447558399986310</t>
+  </si>
+  <si>
+    <t>VDI</t>
+  </si>
+  <si>
+    <t>'4916734737609960</t>
+  </si>
+  <si>
+    <t>4409812456</t>
+  </si>
+  <si>
+    <t>North Street</t>
+  </si>
+  <si>
+    <t>Adil Dastoor</t>
+  </si>
+  <si>
+    <t>4539039859305500</t>
+  </si>
+  <si>
+    <t>4564145223</t>
+  </si>
+  <si>
+    <t>East Car Street</t>
+  </si>
+  <si>
+    <t>95404</t>
+  </si>
+  <si>
+    <t>5153087872591000</t>
+  </si>
+  <si>
+    <t>Williams Lane</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Sanity</t>
+  </si>
+  <si>
+    <t>92545</t>
+  </si>
+  <si>
+    <t>373046663765511</t>
+  </si>
+  <si>
+    <t>Suzy Park</t>
+  </si>
+  <si>
+    <t>Hemet</t>
+  </si>
+  <si>
+    <t>10019</t>
+  </si>
+  <si>
+    <t>6011796899821190</t>
+  </si>
+  <si>
+    <t>4567834223</t>
+  </si>
+  <si>
+    <t>Dream Land</t>
+  </si>
+  <si>
+    <t>Manhattan</t>
+  </si>
+  <si>
+    <t>Betul</t>
+  </si>
+  <si>
+    <t>10234567891</t>
+  </si>
+  <si>
+    <t>Kaveri Street</t>
+  </si>
+  <si>
+    <t>Wonderland Park</t>
+  </si>
+  <si>
+    <t>4423765432</t>
+  </si>
+  <si>
+    <t>4478903245</t>
+  </si>
+  <si>
+    <t>41005</t>
+  </si>
+  <si>
+    <t>19401</t>
+  </si>
+  <si>
+    <t>100234567000</t>
+  </si>
+  <si>
+    <t>10023456789</t>
+  </si>
+  <si>
+    <t>44098452322</t>
+  </si>
+  <si>
+    <t>4409846723</t>
+  </si>
+  <si>
+    <t>Chapmans Park</t>
+  </si>
+  <si>
+    <t>Cauvery Lane</t>
+  </si>
+  <si>
+    <t>Khed</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>K1P 5A5</t>
+  </si>
+  <si>
+    <t>4024007136972670</t>
+  </si>
+  <si>
+    <t>Ottawa</t>
+  </si>
+  <si>
+    <t>4404356723</t>
+  </si>
+  <si>
+    <t>ChaEastern Lane</t>
+  </si>
+  <si>
+    <t>11422</t>
+  </si>
+  <si>
+    <t>Rosedale</t>
+  </si>
+  <si>
+    <t>Amit Chandra</t>
+  </si>
+  <si>
+    <t>4436757456</t>
+  </si>
+  <si>
+    <t>Queens Lane</t>
+  </si>
+  <si>
+    <t>Nithran Lane</t>
+  </si>
+  <si>
+    <t>75036</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>344120913709789</t>
+  </si>
+  <si>
+    <t>4405325223</t>
+  </si>
+  <si>
+    <t>North Car Lane</t>
+  </si>
+  <si>
+    <t>4916734737609960</t>
+  </si>
+  <si>
+    <t>Mommy Lane</t>
+  </si>
+  <si>
+    <t>Need to add contach date</t>
+  </si>
+  <si>
+    <t>Westbrook</t>
+  </si>
+  <si>
+    <t>Ontario Lane</t>
+  </si>
+  <si>
+    <t>Element click interuption in credit/debit</t>
+  </si>
+  <si>
+    <t>Complete a sale in HomeServe apco-carousel with PaymetType as onbill</t>
+  </si>
+  <si>
+    <t>10987654321</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Northeast Lane</t>
+  </si>
+  <si>
+    <t>Carolina</t>
+  </si>
+  <si>
+    <t>Southeast Lane</t>
+  </si>
+  <si>
+    <t>Peeyush Narain</t>
+  </si>
+  <si>
+    <t>4409844263</t>
+  </si>
+  <si>
+    <t>Wonderpark Street</t>
+  </si>
+  <si>
+    <t>Order Number Issue</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Gulfport</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Central Lane</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -731,8 +1097,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -761,12 +1133,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -883,15 +1249,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -900,12 +1257,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -916,21 +1286,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -939,11 +1300,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1279,11 +1646,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFA7E03-C988-479B-B08E-B46A33901233}">
-  <dimension ref="A1:U51"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:W65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H51" sqref="H51"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R60" sqref="R60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1294,6 +1662,7 @@
     <col min="4" max="4" width="71.44140625" customWidth="1"/>
     <col min="5" max="17" width="15.5546875" customWidth="1"/>
     <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -1304,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1313,7 +1682,7 @@
         <v>115</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>112</v>
@@ -1328,10 +1697,10 @@
         <v>118</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>121</v>
@@ -1340,13 +1709,13 @@
         <v>120</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="R1" s="7" t="s">
         <v>110</v>
@@ -1354,31 +1723,29 @@
       <c r="S1" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="T1" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="U1" s="17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T1" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>173</v>
-      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>116</v>
@@ -1390,41 +1757,41 @@
         <v>109</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>126</v>
+        <v>192</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T2" s="19" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>174</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1436,10 +1803,10 @@
         <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>116</v>
@@ -1450,38 +1817,40 @@
       <c r="I3" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M3" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="O3" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>192</v>
       </c>
       <c r="P3" s="8"/>
       <c r="Q3" s="8" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T3" s="19" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>174</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1490,13 +1859,13 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>116</v>
@@ -1507,35 +1876,37 @@
       <c r="I4" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M4" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="O4" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>192</v>
       </c>
       <c r="P4" s="8"/>
       <c r="Q4" s="8" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T4" s="19" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>174</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -1545,15 +1916,17 @@
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>116</v>
@@ -1564,38 +1937,42 @@
       <c r="I5" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="P5" s="8"/>
+        <v>313</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>192</v>
+      </c>
       <c r="Q5" s="8" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T5" s="19" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>174</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1604,13 +1981,13 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>116</v>
@@ -1621,38 +1998,42 @@
       <c r="I6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="P6" s="8"/>
+        <v>313</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>192</v>
+      </c>
       <c r="Q6" s="8" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T6" s="19" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>174</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1661,13 +2042,13 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>116</v>
@@ -1678,35 +2059,39 @@
       <c r="I7" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="P7" s="8"/>
+        <v>313</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>192</v>
+      </c>
       <c r="Q7" s="8" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T7" s="19" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>174</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>185</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -1717,7 +2102,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>15</v>
@@ -1726,10 +2111,10 @@
         <v>119</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>117</v>
+        <v>302</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>105</v>
@@ -1738,41 +2123,41 @@
         <v>109</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>126</v>
+        <v>303</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>178</v>
+        <v>304</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>192</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T8" s="19" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>305</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1787,10 +2172,10 @@
         <v>119</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>117</v>
+        <v>302</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>107</v>
@@ -1799,23 +2184,41 @@
         <v>109</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>126</v>
+        <v>303</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1830,10 +2233,10 @@
         <v>119</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>117</v>
+        <v>302</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>108</v>
@@ -1842,21 +2245,39 @@
         <v>109</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>126</v>
+        <v>303</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
+        <v>161</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -1866,7 +2287,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>22</v>
@@ -1875,7 +2296,7 @@
         <v>123</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>122</v>
@@ -1887,41 +2308,41 @@
         <v>106</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>126</v>
+        <v>192</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T11" s="19" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>261</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1936,7 +2357,7 @@
         <v>123</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>122</v>
@@ -1947,38 +2368,42 @@
       <c r="I12" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="J12" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="P12" s="8"/>
+        <v>218</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>192</v>
+      </c>
       <c r="Q12" s="8" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T12" s="19" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>261</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1993,7 +2418,7 @@
         <v>123</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>122</v>
@@ -2004,35 +2429,39 @@
       <c r="I13" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J13" s="4"/>
+      <c r="J13" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="P13" s="8"/>
+        <v>218</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>192</v>
+      </c>
       <c r="Q13" s="8" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T13" s="19" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>261</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>185</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -2042,7 +2471,9 @@
       <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="D14" s="2" t="s">
         <v>28</v>
       </c>
@@ -2050,7 +2481,7 @@
         <v>123</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>122</v>
@@ -2061,38 +2492,42 @@
       <c r="I14" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J14" s="4"/>
+      <c r="J14" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>178</v>
+        <v>263</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="O14" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="P14" s="8"/>
+      <c r="P14" s="8" t="s">
+        <v>192</v>
+      </c>
       <c r="Q14" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T14" s="19" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="T14" s="14" t="s">
+        <v>261</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -2107,7 +2542,7 @@
         <v>123</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>122</v>
@@ -2118,38 +2553,42 @@
       <c r="I15" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J15" s="4"/>
+      <c r="J15" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>178</v>
+        <v>263</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="O15" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="P15" s="8"/>
+      <c r="P15" s="8" t="s">
+        <v>192</v>
+      </c>
       <c r="Q15" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T15" s="19" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="T15" s="14" t="s">
+        <v>261</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -2164,7 +2603,7 @@
         <v>123</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>122</v>
@@ -2175,35 +2614,39 @@
       <c r="I16" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>178</v>
+        <v>263</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="O16" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="P16" s="8"/>
+      <c r="P16" s="8" t="s">
+        <v>192</v>
+      </c>
       <c r="Q16" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T16" s="19" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="T16" s="14" t="s">
+        <v>261</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>185</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
@@ -2214,7 +2657,7 @@
         <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>35</v>
@@ -2223,7 +2666,7 @@
         <v>123</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>124</v>
@@ -2235,41 +2678,41 @@
         <v>106</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>126</v>
+        <v>192</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>179</v>
+        <v>192</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>192</v>
+        <v>264</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T17" s="19" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="T17" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -2284,7 +2727,7 @@
         <v>123</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>124</v>
@@ -2296,38 +2739,38 @@
         <v>106</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>126</v>
+        <v>192</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>179</v>
+        <v>192</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>192</v>
+        <v>264</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T18" s="19" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="T18" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>185</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -2338,7 +2781,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>40</v>
@@ -2347,10 +2790,10 @@
         <v>119</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>125</v>
+        <v>267</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>105</v>
@@ -2359,41 +2802,41 @@
         <v>106</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>126</v>
+        <v>270</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>178</v>
+        <v>161</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>192</v>
+        <v>268</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T19" s="19" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="T19" s="14" t="s">
+        <v>174</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -2408,10 +2851,10 @@
         <v>119</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>125</v>
+        <v>267</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>107</v>
@@ -2420,23 +2863,41 @@
         <v>106</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>126</v>
+        <v>270</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="T20" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
@@ -2451,10 +2912,10 @@
         <v>119</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>125</v>
+        <v>267</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>108</v>
@@ -2463,23 +2924,41 @@
         <v>106</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>126</v>
+        <v>270</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="T21" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>45</v>
       </c>
@@ -2494,10 +2973,10 @@
         <v>119</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>125</v>
+        <v>267</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>105</v>
@@ -2510,31 +2989,31 @@
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T22" s="19" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="T22" s="14" t="s">
+        <v>174</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>47</v>
       </c>
@@ -2549,10 +3028,10 @@
         <v>119</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>125</v>
+        <v>267</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>107</v>
@@ -2565,7 +3044,7 @@
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -2577,7 +3056,7 @@
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>49</v>
       </c>
@@ -2592,10 +3071,10 @@
         <v>119</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>125</v>
+        <v>267</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>108</v>
@@ -2608,7 +3087,7 @@
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -2628,7 +3107,7 @@
         <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>53</v>
@@ -2637,10 +3116,10 @@
         <v>119</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>127</v>
+        <v>297</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>105</v>
@@ -2649,41 +3128,41 @@
         <v>106</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>126</v>
+        <v>299</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>192</v>
+        <v>298</v>
       </c>
       <c r="P25" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T25" s="19" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="T25" s="14" t="s">
+        <v>300</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>54</v>
       </c>
@@ -2698,10 +3177,10 @@
         <v>119</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>127</v>
+        <v>297</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>107</v>
@@ -2710,23 +3189,41 @@
         <v>106</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>126</v>
+        <v>299</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="T26" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="U26" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
@@ -2741,10 +3238,10 @@
         <v>119</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>127</v>
+        <v>297</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>108</v>
@@ -2753,21 +3250,39 @@
         <v>106</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>126</v>
+        <v>299</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
+        <v>161</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="T27" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
@@ -2777,7 +3292,7 @@
         <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>60</v>
@@ -2786,10 +3301,10 @@
         <v>119</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>128</v>
+        <v>272</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>105</v>
@@ -2798,41 +3313,41 @@
         <v>106</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>126</v>
+        <v>275</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>192</v>
+        <v>273</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T28" s="19" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="T28" s="14" t="s">
+        <v>174</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>61</v>
       </c>
@@ -2847,10 +3362,10 @@
         <v>119</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>128</v>
+        <v>272</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>107</v>
@@ -2859,39 +3374,41 @@
         <v>106</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>126</v>
+        <v>275</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="P29" s="8"/>
+        <v>273</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>192</v>
+      </c>
       <c r="Q29" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T29" s="19" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="T29" s="14" t="s">
+        <v>174</v>
       </c>
       <c r="U29" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>63</v>
       </c>
@@ -2906,10 +3423,10 @@
         <v>119</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>128</v>
+        <v>272</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>108</v>
@@ -2918,39 +3435,41 @@
         <v>106</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>126</v>
+        <v>275</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="P30" s="8"/>
+        <v>273</v>
+      </c>
+      <c r="P30" s="8" t="s">
+        <v>192</v>
+      </c>
       <c r="Q30" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T30" s="19" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="T30" s="14" t="s">
+        <v>174</v>
       </c>
       <c r="U30" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>65</v>
       </c>
@@ -2965,10 +3484,10 @@
         <v>119</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>128</v>
+        <v>272</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>105</v>
@@ -2981,35 +3500,35 @@
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M31" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="O31" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="O31" s="8" t="s">
-        <v>192</v>
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="8" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T31" s="19" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="T31" s="14" t="s">
+        <v>174</v>
       </c>
       <c r="U31" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>67</v>
       </c>
@@ -3024,10 +3543,10 @@
         <v>119</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>128</v>
+        <v>272</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>107</v>
@@ -3040,37 +3559,37 @@
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M32" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="O32" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="N32" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="O32" s="8" t="s">
-        <v>192</v>
-      </c>
       <c r="P32" s="8" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T32" s="19" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="T32" s="14" t="s">
+        <v>174</v>
       </c>
       <c r="U32" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
@@ -3085,10 +3604,10 @@
         <v>119</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>128</v>
+        <v>272</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>108</v>
@@ -3101,34 +3620,34 @@
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M33" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="O33" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="N33" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="O33" s="8" t="s">
-        <v>192</v>
-      </c>
       <c r="P33" s="8" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T33" s="19" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="T33" s="14" t="s">
+        <v>174</v>
       </c>
       <c r="U33" s="5" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
@@ -3139,7 +3658,7 @@
         <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>72</v>
@@ -3148,10 +3667,10 @@
         <v>119</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>129</v>
+        <v>276</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>105</v>
@@ -3160,41 +3679,41 @@
         <v>106</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>126</v>
+        <v>280</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>192</v>
+        <v>277</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T34" s="19" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="T34" s="14" t="s">
+        <v>278</v>
       </c>
       <c r="U34" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>73</v>
       </c>
@@ -3209,10 +3728,10 @@
         <v>119</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>129</v>
+        <v>276</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>107</v>
@@ -3221,23 +3740,41 @@
         <v>106</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>126</v>
+        <v>280</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="P35" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q35" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="S35" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="T35" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="U35" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>75</v>
       </c>
@@ -3252,10 +3789,10 @@
         <v>119</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>129</v>
+        <v>276</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>108</v>
@@ -3264,23 +3801,41 @@
         <v>106</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>126</v>
+        <v>280</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="P36" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q36" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="T36" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="U36" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>77</v>
       </c>
@@ -3295,10 +3850,10 @@
         <v>119</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>129</v>
+        <v>276</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>105</v>
@@ -3311,7 +3866,7 @@
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
@@ -3323,7 +3878,7 @@
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>79</v>
       </c>
@@ -3338,10 +3893,10 @@
         <v>119</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>129</v>
+        <v>276</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>107</v>
@@ -3354,31 +3909,31 @@
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
       <c r="R38" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S38" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T38" s="19" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="T38" s="14" t="s">
+        <v>174</v>
       </c>
       <c r="U38" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>81</v>
       </c>
@@ -3393,10 +3948,10 @@
         <v>119</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>129</v>
+        <v>276</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>108</v>
@@ -3409,7 +3964,7 @@
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
@@ -3429,7 +3984,7 @@
         <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>85</v>
@@ -3438,7 +3993,7 @@
         <v>119</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>130</v>
@@ -3447,476 +4002,488 @@
         <v>105</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="K40" s="20" t="s">
-        <v>200</v>
+      <c r="K40" s="15" t="s">
+        <v>186</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="O40" s="8" t="s">
         <v>192</v>
       </c>
       <c r="P40" s="8" t="s">
-        <v>197</v>
+        <v>282</v>
       </c>
       <c r="Q40" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T40" s="19" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="T40" s="14" t="s">
+        <v>285</v>
       </c>
       <c r="U40" s="5" t="s">
-        <v>185</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="C41" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="I41" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="J41" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="K41" t="s">
         <v>187</v>
       </c>
-      <c r="G41" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="K41" t="s">
-        <v>201</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="N41" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="O41" s="8" t="s">
+      <c r="L41" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="M41" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="N41" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="O41" s="18" t="s">
         <v>192</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>197</v>
+        <v>282</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="R41" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S41" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T41" s="19" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="T41" s="14" t="s">
+        <v>286</v>
       </c>
       <c r="U41" s="5" t="s">
-        <v>185</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="C42" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>90</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>119</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="H42" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>105</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>106</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="K42" s="20"/>
+        <v>309</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="L42" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>192</v>
+        <v>310</v>
       </c>
       <c r="P42" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="R42" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S42" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T42" s="19" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="T42" s="14" t="s">
+        <v>311</v>
       </c>
       <c r="U42" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2" t="s">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4" t="s">
         <v>92</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>119</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="H43" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>107</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>106</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="K43" s="20"/>
+        <v>309</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="L43" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>192</v>
+        <v>310</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q43" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="R43" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S43" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T43" s="19" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="T43" s="14" t="s">
+        <v>311</v>
       </c>
       <c r="U43" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2" t="s">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4" t="s">
         <v>94</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>119</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="H44" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>108</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>106</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="K44" s="4"/>
+        <v>309</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="L44" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>192</v>
+        <v>310</v>
       </c>
       <c r="P44" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q44" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="R44" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S44" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T44" s="19" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="T44" s="14" t="s">
+        <v>311</v>
       </c>
       <c r="U44" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2" t="s">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4" t="s">
         <v>96</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>119</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="H45" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>105</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>109</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="K45" s="4"/>
+        <v>309</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="L45" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M45" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="O45" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="N45" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="O45" s="8" t="s">
-        <v>192</v>
-      </c>
       <c r="P45" s="8" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="Q45" s="8" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="R45" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S45" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T45" s="19" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="T45" s="14" t="s">
+        <v>311</v>
       </c>
       <c r="U45" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2" t="s">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4" t="s">
         <v>96</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>119</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="H46" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>107</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>109</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="K46" s="4"/>
+        <v>309</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="L46" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M46" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="O46" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="N46" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="O46" s="8" t="s">
-        <v>192</v>
-      </c>
       <c r="P46" s="8" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="Q46" s="8" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="R46" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S46" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T46" s="19" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="T46" s="14" t="s">
+        <v>311</v>
       </c>
       <c r="U46" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A47" s="21" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21" t="s">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F47" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="G47" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="H47" s="24" t="s">
+      <c r="F47" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="I47" s="22" t="s">
+      <c r="I47" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J47" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="M47" s="22" t="s">
+      <c r="J47" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="O47" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="N47" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="O47" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="P47" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q47" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="R47" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="S47" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="T47" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="U47" s="25" t="s">
-        <v>185</v>
+      <c r="P47" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q47" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="R47" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="S47" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="T47" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="U47" s="5" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
@@ -3927,7 +4494,7 @@
         <v>100</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>101</v>
@@ -3936,53 +4503,55 @@
         <v>119</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>134</v>
+        <v>287</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>105</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="K48" s="4"/>
+        <v>295</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="L48" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="O48" s="8" t="s">
         <v>192</v>
       </c>
       <c r="P48" s="8" t="s">
-        <v>197</v>
+        <v>290</v>
       </c>
       <c r="Q48" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="R48" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="S48" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T48" s="19" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="T48" s="14" t="s">
+        <v>291</v>
       </c>
       <c r="U48" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>102</v>
       </c>
@@ -3990,7 +4559,7 @@
         <v>103</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>104</v>
@@ -3999,138 +4568,140 @@
         <v>119</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>135</v>
+        <v>288</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>105</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="K49" s="4"/>
+        <v>296</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="L49" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="O49" s="8" t="s">
         <v>192</v>
       </c>
       <c r="P49" s="8" t="s">
-        <v>197</v>
+        <v>289</v>
       </c>
       <c r="Q49" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="R49" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="S49" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="T49" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="U49" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="R49" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="S49" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T49" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="U49" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>205</v>
-      </c>
       <c r="B50" s="4" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G50" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="H50" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="I50" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="J50" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="K50" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="L50" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="M50" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="N50" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="O50" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="P50" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q50" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="R50" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="S50" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="T50" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="U50" s="31" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="27" t="s">
-        <v>208</v>
+        <v>173</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q50" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="R50" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="S50" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="T50" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="U50" s="23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="D51" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="E51" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F51" s="29" t="s">
-        <v>187</v>
+      <c r="F51" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>105</v>
@@ -4139,42 +4710,978 @@
         <v>106</v>
       </c>
       <c r="J51" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="O51" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="P51" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q51" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="R51" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="S51" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="T51" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="U51" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="O52" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P52" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q52" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="R52" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="S52" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="T52" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="U52" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J53" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="M51" s="4" t="s">
+      <c r="K53" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="O53" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="N51" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="O51" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="P51" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q51" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="R51" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="S51" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T51" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="U51" s="5" t="s">
-        <v>185</v>
-      </c>
+      <c r="P53" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q53" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="R53" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="S53" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="T53" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="U53" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="O54" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="P54" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q54" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="R54" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="S54" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="T54" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="U54" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="H55" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="I55" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="J55" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="L55" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="M55" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="N55" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="O55" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="P55" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q55" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="R55" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="S55" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="T55" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="U55" s="20" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="N56" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="O56" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="P56" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q56" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="R56" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="S56" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="T56" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="U56" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="O57" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P57" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q57" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="R57" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="S57" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="T57" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="U57" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="N58" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="O58" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="P58" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q58" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="R58" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="S58" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="T58" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="U58" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="N59" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="O59" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P59" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q59" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="R59" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="S59" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="T59" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="U59" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G60" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="N60" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="O60" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="P60" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q60" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="R60" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="S60" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="T60" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="U60" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G61" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="N61" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="O61" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="P61" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q61" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="R61" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="S61" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="T61" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="U61" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="N62" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="O62" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="P62" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q62" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="R62" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="S62" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="T62" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="U62" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G63" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="N63" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="O63" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="P63" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q63" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="R63" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="S63" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="T63" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="U63" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="V63" s="5"/>
+      <c r="W63" s="5"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G64" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="N64" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="O64" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="P64" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q64" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="R64" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="S64" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="T64" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="U64" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G65" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="N65" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="O65" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="P65" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q65" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="R65" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="S65" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="T65" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="U65" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="V65" s="5"/>
+      <c r="W65" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T49" xr:uid="{5AFA7E03-C988-479B-B08E-B46A33901233}"/>
+  <autoFilter ref="A1:T65" xr:uid="{5AFA7E03-C988-479B-B08E-B46A33901233}">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4182,19 +5689,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F731B1-F395-44C8-A5FA-27912FB095EB}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="80.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -4202,353 +5710,384 @@
         <v>136</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>174</v>
+      <c r="B2" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C15" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="13" t="s">
+      <c r="D15" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="11" t="s">
+      <c r="C22" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="11" t="s">
+      <c r="C23" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B24" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="11" t="s">
+      <c r="C24" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B25" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="C35" s="5"/>
+        <v>248</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>259</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B35" xr:uid="{74F731B1-F395-44C8-A5FA-27912FB095EB}"/>
+  <autoFilter ref="A1:D26" xr:uid="{74F731B1-F395-44C8-A5FA-27912FB095EB}"/>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" xr:uid="{74ABD3DF-CF3D-42EA-9CFF-86C14D400C7B}"/>
-    <hyperlink ref="B15" r:id="rId2" display="https://www.reghomeserve.com/sc/mail/firstenergy-fundle" xr:uid="{AD8FB8C2-15C4-4D6F-A210-EF42DC585205}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{23C72C45-07E2-4339-8161-4D4A291A3480}"/>
-    <hyperlink ref="B9" r:id="rId4" display="https://preprod.slwofa.com/mail/lasanitation" xr:uid="{01FF8113-D8EB-48D2-9B71-50BBBCA61BA5}"/>
-    <hyperlink ref="B10" r:id="rId5" display="https://www.reghomeserve.com/sc/mail/buffalowaternipcnew" xr:uid="{9C4F3023-4BB6-4851-ADF7-BB0B9087D372}"/>
-    <hyperlink ref="B7" location="MTW_NIPC!A1" display="MTW_NIPC!A1" xr:uid="{94A2B24C-DFA3-4864-A388-C2FE67D2B4A0}"/>
-    <hyperlink ref="B11" location="MTW_Regular!A1" display="MTW_Regular!A1" xr:uid="{6FD6BC41-D7C9-4F6C-8F60-C2C3CA14A0F8}"/>
-    <hyperlink ref="B12" location="MTW_Regular!A1" display="MTW_Regular!A1" xr:uid="{8AD7AB3A-74C5-4A98-8C18-13EE5049A030}"/>
-    <hyperlink ref="B5" r:id="rId6" xr:uid="{907FA7E2-AC6B-4595-A31F-343F62B96378}"/>
-    <hyperlink ref="B2" r:id="rId7" xr:uid="{D51DB6C3-7C46-47CB-AB8C-D1E1F0CB4FE2}"/>
-    <hyperlink ref="B6" location="SLWC!A1" display="SLWC!A1" xr:uid="{934C7837-F3F5-4735-AD16-72E13190A180}"/>
-    <hyperlink ref="B16" r:id="rId8" xr:uid="{993C9669-F345-4AA6-93CA-F34C7AC1CF73}"/>
-    <hyperlink ref="B17" r:id="rId9" xr:uid="{42F57244-0C52-4995-ADB3-9C89BD1BD6B7}"/>
-    <hyperlink ref="B18" r:id="rId10" xr:uid="{F11D9593-6C33-4EC4-B906-83FF61C41959}"/>
-    <hyperlink ref="B19" location="Landing_Pages!A1" display="Landing_Pages!A1" xr:uid="{3BF5AD64-D6C9-45DE-A3DB-73538B41055D}"/>
-    <hyperlink ref="B20" r:id="rId11" xr:uid="{89D1732F-95A1-4909-B2A4-E1F6924D670D}"/>
-    <hyperlink ref="B21" location="Landing_Pages!A1" display="Landing_Pages!A1" xr:uid="{E3FFBD4A-6299-48BC-AE41-CE5A2AC77EAD}"/>
-    <hyperlink ref="B22" r:id="rId12" xr:uid="{B524328F-D2BC-43F7-9336-22C4D13E6231}"/>
-    <hyperlink ref="B23" r:id="rId13" xr:uid="{AB16D659-A07A-46E4-B570-71BBDA57EDAA}"/>
-    <hyperlink ref="B24" r:id="rId14" xr:uid="{00EDA3E7-F7F9-447C-9E55-43030810D1EE}"/>
-    <hyperlink ref="B25" location="STS_CNPEE!A1" display="STS_CNPEE!A1" xr:uid="{1BA1C733-89E6-481F-B709-368006107BC6}"/>
-    <hyperlink ref="B26" location="STS_CNPEG!A1" display="STS_CNPEG!A1" xr:uid="{7366C463-7134-41C2-8817-9495FC636056}"/>
-    <hyperlink ref="B27" location="Techupsell-Albama!A1" display="Techupsell-Albama!A1" xr:uid="{5C84A0D3-3570-4CE7-B77A-EA4D516C113F}"/>
-    <hyperlink ref="B28" location="Tech_App!A1" display="Tech_App!A1" xr:uid="{20507C38-686C-4071-A626-2D67B41CD89A}"/>
-    <hyperlink ref="B29" location="Techupsell!A1" display="Techupsell!A1" xr:uid="{331BB979-42ED-448F-BF85-450E5550FC3F}"/>
-    <hyperlink ref="B30" location="Techupsell_FPL!A1" display="Techupsell_FPL!A1" xr:uid="{E35CA4BE-F1AD-411F-B3EC-2AC78D25A613}"/>
-    <hyperlink ref="B31" location="CCPA!A1" display="CCPA!A1" xr:uid="{D439AEA1-F8C0-4FA7-9E10-E90D5D3DADF8}"/>
-    <hyperlink ref="B32" location="CCPA!A1" display="CCPA!A1" xr:uid="{DF9404B4-5150-4CD4-9C75-28A9558DE473}"/>
-    <hyperlink ref="B33" r:id="rId15" display="https://www.reghomeserve.com/us/whqe" xr:uid="{4A56A19F-CDE8-48DE-ACA9-F3E5DA0D73C4}"/>
-    <hyperlink ref="B34" location="Partner Portal!A1" display="Partner Portal!A1" xr:uid="{F609080B-E38C-4402-A9B0-E7E7001B14BD}"/>
-    <hyperlink ref="B4" r:id="rId16" xr:uid="{314A0927-1471-4219-9F92-31597DD504FD}"/>
-    <hyperlink ref="B13" r:id="rId17" xr:uid="{8EB57EB5-EE83-42C2-B0BB-CE85AEF20287}"/>
-    <hyperlink ref="B3" r:id="rId18" xr:uid="{17500D8F-EF7E-4F10-BA1D-AB299ECD5413}"/>
+    <hyperlink ref="B12" r:id="rId1" xr:uid="{74ABD3DF-CF3D-42EA-9CFF-86C14D400C7B}"/>
+    <hyperlink ref="B13" r:id="rId2" display="https://www.reghomeserve.com/sc/mail/firstenergy-fundle" xr:uid="{AD8FB8C2-15C4-4D6F-A210-EF42DC585205}"/>
+    <hyperlink ref="B8" r:id="rId3" display="https://preprod.slwofa.com/mail/lasanitation" xr:uid="{01FF8113-D8EB-48D2-9B71-50BBBCA61BA5}"/>
+    <hyperlink ref="B9" r:id="rId4" display="https://www.reghomeserve.com/sc/mail/buffalowaternipcnew" xr:uid="{9C4F3023-4BB6-4851-ADF7-BB0B9087D372}"/>
+    <hyperlink ref="B6" location="MTW_NIPC!A1" display="MTW_NIPC!A1" xr:uid="{94A2B24C-DFA3-4864-A388-C2FE67D2B4A0}"/>
+    <hyperlink ref="B10" location="MTW_Regular!A1" display="MTW_Regular!A1" xr:uid="{6FD6BC41-D7C9-4F6C-8F60-C2C3CA14A0F8}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{907FA7E2-AC6B-4595-A31F-343F62B96378}"/>
+    <hyperlink ref="B2" r:id="rId6" xr:uid="{D51DB6C3-7C46-47CB-AB8C-D1E1F0CB4FE2}"/>
+    <hyperlink ref="B5" location="SLWC!A1" display="SLWC!A1" xr:uid="{934C7837-F3F5-4735-AD16-72E13190A180}"/>
+    <hyperlink ref="B14" r:id="rId7" xr:uid="{993C9669-F345-4AA6-93CA-F34C7AC1CF73}"/>
+    <hyperlink ref="B16" r:id="rId8" xr:uid="{42F57244-0C52-4995-ADB3-9C89BD1BD6B7}"/>
+    <hyperlink ref="B17" r:id="rId9" xr:uid="{F11D9593-6C33-4EC4-B906-83FF61C41959}"/>
+    <hyperlink ref="B18" r:id="rId10" xr:uid="{3BF5AD64-D6C9-45DE-A3DB-73538B41055D}"/>
+    <hyperlink ref="B22" r:id="rId11" xr:uid="{00EDA3E7-F7F9-447C-9E55-43030810D1EE}"/>
+    <hyperlink ref="B19" r:id="rId12" xr:uid="{1BA1C733-89E6-481F-B709-368006107BC6}"/>
+    <hyperlink ref="B3" r:id="rId13" xr:uid="{314A0927-1471-4219-9F92-31597DD504FD}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{3B79C388-1453-42AA-8C91-602D1F0DF82E}"/>
+    <hyperlink ref="B20" r:id="rId15" xr:uid="{2A79D849-A986-483D-BE65-13666CB52103}"/>
+    <hyperlink ref="B23" location="Techupsell-Albama!A1" display="Techupsell-Albama!A1" xr:uid="{A8E03156-F188-4696-B4DC-22F65E3A5B65}"/>
+    <hyperlink ref="B24" location="Techupsell!A1" display="Techupsell!A1" xr:uid="{A492500D-24A6-40F5-A074-C040AC9F8C24}"/>
+    <hyperlink ref="B25" location="Techupsell_FPL!A1" display="Techupsell_FPL!A1" xr:uid="{B0DCDABD-E036-4544-AEC3-39505014F57A}"/>
+    <hyperlink ref="B26" r:id="rId16" xr:uid="{3B5ED568-3508-4426-B262-78CDC4B721F8}"/>
+    <hyperlink ref="B21" r:id="rId17" xr:uid="{70339B75-95E3-4656-8122-696EDE325407}"/>
+    <hyperlink ref="B11" r:id="rId18" xr:uid="{9AA24593-FA7B-4E49-A802-C98AF5D388C6}"/>
+    <hyperlink ref="B7" r:id="rId19" xr:uid="{7B3BF691-E3CD-4EDD-B490-738E2561773F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId20"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/inputData.xlsx
+++ b/src/test/resources/TestData/inputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\train\Automation\BAU\BAU_Regression\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9038CE1-2E8F-4838-A949-80DBCED597C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7061A041-BC39-41E4-AB16-025ED75B36B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C4BD471F-CC96-4C0B-AADD-EAF5A4C4939D}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="URL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">inputData!$A$1:$T$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">inputData!$A$1:$V$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">URL!$A$1:$D$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="337">
   <si>
     <t>Test ID</t>
   </si>
@@ -496,12 +496,6 @@
     <t>https://preprod-techupsell.homeserveusa.com/alabama</t>
   </si>
   <si>
-    <t>https://preprod-techupsell.homeserveusa.com  </t>
-  </si>
-  <si>
-    <t>https://preprod-fplhometech.homeserveusa.com  </t>
-  </si>
-  <si>
     <t>ZipCode</t>
   </si>
   <si>
@@ -676,9 +670,6 @@
     <t>4024007168458700</t>
   </si>
   <si>
-    <t>https://www.reghomeserve.com/en-us/lp/servline-water</t>
-  </si>
-  <si>
     <t>servline-water</t>
   </si>
   <si>
@@ -781,18 +772,12 @@
     <t>Complete a sale in fplhometech with PaymetType as onbill</t>
   </si>
   <si>
-    <t>4532066489458410</t>
-  </si>
-  <si>
     <t>https://www.reghomeserve.com/en-us/lp/mail/AlabamaPower-Postcard-50</t>
   </si>
   <si>
     <t>alabamaPower</t>
   </si>
   <si>
-    <t>https://www.reghomeserve.com/en-us/clp/display/pk-yellow-no-redirect/</t>
-  </si>
-  <si>
     <t>pk-yellow-no-redirect</t>
   </si>
   <si>
@@ -805,18 +790,12 @@
     <t>https://preprod.slwofa.com/mail/arlington-choice</t>
   </si>
   <si>
-    <t>https://preprod.slwofc.ca/mail/ottawa-french </t>
-  </si>
-  <si>
     <t>Complete a sale in pk-yellow-no-redirect with PaymetType as Checking Account</t>
   </si>
   <si>
     <t>37421</t>
   </si>
   <si>
-    <t>'4539039859305500</t>
-  </si>
-  <si>
     <t>5447558399986310</t>
   </si>
   <si>
@@ -988,18 +967,12 @@
     <t>Mommy Lane</t>
   </si>
   <si>
-    <t>Need to add contach date</t>
-  </si>
-  <si>
     <t>Westbrook</t>
   </si>
   <si>
     <t>Ontario Lane</t>
   </si>
   <si>
-    <t>Element click interuption in credit/debit</t>
-  </si>
-  <si>
     <t>Complete a sale in HomeServe apco-carousel with PaymetType as onbill</t>
   </si>
   <si>
@@ -1027,9 +1000,6 @@
     <t>Wonderpark Street</t>
   </si>
   <si>
-    <t>Order Number Issue</t>
-  </si>
-  <si>
     <t>Mississippi</t>
   </si>
   <si>
@@ -1040,6 +1010,48 @@
   </si>
   <si>
     <t>Central Lane</t>
+  </si>
+  <si>
+    <t>techID</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>TechID</t>
+  </si>
+  <si>
+    <t>Carolim Lane</t>
+  </si>
+  <si>
+    <t>Moody Street</t>
+  </si>
+  <si>
+    <t>No Payment</t>
+  </si>
+  <si>
+    <t>https://preprod-fplhometech.homeserveusa.com</t>
+  </si>
+  <si>
+    <t>https://preprod-techupsell.homeserveusa.com</t>
+  </si>
+  <si>
+    <t>cardType</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>https://preprod.slwofc.ca/mail/ottawa</t>
+  </si>
+  <si>
+    <t>4524007136972670</t>
+  </si>
+  <si>
+    <t>https://www.reghomeserve.com/en-us/lp/servline-water/?ncr=true</t>
+  </si>
+  <si>
+    <t>https://www.reghomeserve.com/en-us/clp/display/pk-yellow-no-redirect/?ncr=true</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1148,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1239,8 +1251,26 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color rgb="FF000000"/>
-      </left>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -1249,25 +1279,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1275,7 +1294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1297,10 +1316,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1308,9 +1326,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1647,11 +1669,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFA7E03-C988-479B-B08E-B46A33901233}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:W65"/>
+  <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R60" sqref="R60"/>
+      <selection pane="bottomLeft" activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1660,12 +1682,12 @@
     <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="71.44140625" customWidth="1"/>
-    <col min="5" max="17" width="15.5546875" customWidth="1"/>
-    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="19" width="15.5546875" customWidth="1"/>
+    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1673,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1682,55 +1704,61 @@
         <v>115</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>112</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="I1" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>185</v>
-      </c>
       <c r="L1" s="6" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>177</v>
-      </c>
       <c r="P1" s="6" t="s">
-        <v>182</v>
+        <v>331</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="T1" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="T1" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V1" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1742,56 +1770,58 @@
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="25"/>
+      <c r="I2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="K2" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L2" s="4"/>
       <c r="M2" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="N2" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="T2" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="O2" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>174</v>
-      </c>
       <c r="U2" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1803,54 +1833,56 @@
         <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="25"/>
+      <c r="I3" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="K3" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L3" s="4"/>
       <c r="M3" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="P3" s="8"/>
       <c r="Q3" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="R3" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T3" s="14" t="s">
+      <c r="R3" s="8"/>
+      <c r="S3" s="8" t="s">
         <v>174</v>
       </c>
+      <c r="T3" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="U3" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1859,57 +1891,59 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="25"/>
+      <c r="I4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="K4" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L4" s="4"/>
       <c r="M4" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="P4" s="8"/>
       <c r="Q4" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="R4" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T4" s="14" t="s">
+      <c r="R4" s="8"/>
+      <c r="S4" s="8" t="s">
         <v>174</v>
       </c>
+      <c r="T4" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="U4" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1917,62 +1951,68 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I5" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="K5" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L5" s="4"/>
       <c r="M5" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>192</v>
+        <v>159</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>313</v>
+        <v>190</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>192</v>
+        <v>332</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T5" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S5" s="8" t="s">
         <v>174</v>
       </c>
+      <c r="T5" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="U5" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V5" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1981,59 +2021,61 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="25"/>
+      <c r="I6" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="K6" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L6" s="4"/>
       <c r="M6" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>192</v>
+        <v>159</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>192</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="P6" s="8"/>
       <c r="Q6" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T6" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S6" s="8" t="s">
         <v>174</v>
       </c>
+      <c r="T6" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="U6" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V6" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -2042,59 +2084,61 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="25"/>
+      <c r="I7" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="K7" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L7" s="4"/>
       <c r="M7" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>192</v>
+        <v>159</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>192</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="P7" s="8"/>
       <c r="Q7" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T7" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S7" s="8" t="s">
         <v>174</v>
       </c>
+      <c r="T7" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="U7" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -2102,7 +2146,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>15</v>
@@ -2111,53 +2155,59 @@
         <v>119</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="H8" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I8" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="K8" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="N8" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="T8" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="O8" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T8" s="14" t="s">
-        <v>305</v>
-      </c>
       <c r="U8" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -2172,53 +2222,55 @@
         <v>119</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="H9" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="K9" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="N9" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="T9" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="O9" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T9" s="14" t="s">
-        <v>305</v>
-      </c>
       <c r="U9" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -2233,53 +2285,55 @@
         <v>119</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="H10" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="K10" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="N10" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="T10" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="O10" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T10" s="14" t="s">
-        <v>305</v>
-      </c>
       <c r="U10" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2287,7 +2341,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>22</v>
@@ -2296,53 +2350,59 @@
         <v>123</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I11" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="K11" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L11" s="4"/>
       <c r="M11" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>192</v>
+        <v>159</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>192</v>
+        <v>332</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T11" s="14" t="s">
-        <v>261</v>
+        <v>215</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V11" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -2357,53 +2417,55 @@
         <v>123</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="25"/>
+      <c r="I12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="K12" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L12" s="4"/>
       <c r="M12" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>192</v>
+        <v>159</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>192</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="P12" s="8"/>
       <c r="Q12" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T12" s="14" t="s">
-        <v>261</v>
+        <v>215</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V12" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -2418,53 +2480,55 @@
         <v>123</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="25"/>
+      <c r="I13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="K13" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L13" s="4"/>
       <c r="M13" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>192</v>
+        <v>159</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>192</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="P13" s="8"/>
       <c r="Q13" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="R13" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T13" s="14" t="s">
-        <v>261</v>
+        <v>215</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V13" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -2472,7 +2536,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>28</v>
@@ -2481,53 +2545,59 @@
         <v>123</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I14" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="K14" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L14" s="4"/>
       <c r="M14" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>208</v>
+        <v>159</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T14" s="14" t="s">
-        <v>261</v>
+        <v>190</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V14" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -2542,53 +2612,55 @@
         <v>123</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="25"/>
+      <c r="I15" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="K15" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L15" s="4"/>
       <c r="M15" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>208</v>
+        <v>159</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>192</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="P15" s="8"/>
       <c r="Q15" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T15" s="14" t="s">
-        <v>261</v>
+        <v>190</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V15" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -2603,53 +2675,55 @@
         <v>123</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="25"/>
+      <c r="I16" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="K16" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L16" s="4"/>
       <c r="M16" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>208</v>
+        <v>159</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="P16" s="8" t="s">
-        <v>192</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="P16" s="8"/>
       <c r="Q16" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T16" s="14" t="s">
-        <v>261</v>
+        <v>190</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V16" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -2657,7 +2731,7 @@
         <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>35</v>
@@ -2666,53 +2740,59 @@
         <v>123</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I17" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="K17" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L17" s="4"/>
       <c r="M17" s="4" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>264</v>
+        <v>190</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>192</v>
+        <v>332</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T17" s="14" t="s">
-        <v>265</v>
+        <v>257</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V17" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -2727,53 +2807,55 @@
         <v>123</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="26"/>
+      <c r="I18" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="J18" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="K18" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L18" s="4"/>
       <c r="M18" s="4" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>192</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="P18" s="4"/>
       <c r="Q18" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T18" s="14" t="s">
-        <v>265</v>
+        <v>257</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S18" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V18" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -2781,7 +2863,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>40</v>
@@ -2790,53 +2872,59 @@
         <v>119</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="H19" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I19" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="J19" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>192</v>
+      <c r="K19" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>268</v>
+        <v>190</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>192</v>
+        <v>332</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T19" s="14" t="s">
-        <v>174</v>
+        <v>261</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V19" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -2851,53 +2939,55 @@
         <v>119</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="H20" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H20" s="25"/>
+      <c r="I20" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J20" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>192</v>
+      <c r="K20" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="P20" s="8" t="s">
-        <v>192</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="P20" s="8"/>
       <c r="Q20" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S20" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T20" s="14" t="s">
-        <v>174</v>
+        <v>261</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S20" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V20" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
@@ -2912,53 +3002,55 @@
         <v>119</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="H21" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H21" s="25"/>
+      <c r="I21" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="J21" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>192</v>
+      <c r="K21" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="P21" s="8" t="s">
-        <v>192</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="P21" s="8"/>
       <c r="Q21" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T21" s="14" t="s">
-        <v>174</v>
+        <v>261</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V21" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>45</v>
       </c>
@@ -2973,47 +3065,49 @@
         <v>119</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="H22" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H22" s="25"/>
+      <c r="I22" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="J22" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="K22" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="L22" s="4"/>
       <c r="M22" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="O22" s="8"/>
+        <v>159</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>163</v>
+      </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
-      <c r="R22" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S22" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T22" s="14" t="s">
-        <v>174</v>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V22" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="W22" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>47</v>
       </c>
@@ -3028,35 +3122,37 @@
         <v>119</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="H23" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H23" s="25"/>
+      <c r="I23" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="J23" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="K23" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="M23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
-    </row>
-    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+    </row>
+    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>49</v>
       </c>
@@ -3071,35 +3167,37 @@
         <v>119</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="H24" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H24" s="25"/>
+      <c r="I24" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="J24" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="K24" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="M24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -3107,7 +3205,7 @@
         <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>53</v>
@@ -3116,53 +3214,59 @@
         <v>119</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="H25" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I25" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="J25" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="K25" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="L25" s="4"/>
       <c r="M25" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>192</v>
+        <v>159</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>298</v>
+        <v>190</v>
       </c>
       <c r="P25" s="8" t="s">
-        <v>192</v>
+        <v>332</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="R25" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S25" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T25" s="14" t="s">
-        <v>300</v>
+        <v>334</v>
+      </c>
+      <c r="R25" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S25" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V25" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>54</v>
       </c>
@@ -3177,53 +3281,55 @@
         <v>119</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="H26" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H26" s="26"/>
+      <c r="I26" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="K26" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="L26" s="4"/>
       <c r="M26" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>192</v>
+        <v>159</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="P26" s="8" t="s">
-        <v>192</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="P26" s="8"/>
       <c r="Q26" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="R26" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S26" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T26" s="14" t="s">
-        <v>300</v>
+        <v>291</v>
+      </c>
+      <c r="R26" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S26" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="T26" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V26" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
@@ -3238,53 +3344,55 @@
         <v>119</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="H27" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H27" s="26"/>
+      <c r="I27" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="J27" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="K27" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="L27" s="4"/>
       <c r="M27" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>192</v>
+        <v>159</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="P27" s="8" t="s">
-        <v>192</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="P27" s="8"/>
       <c r="Q27" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="R27" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S27" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T27" s="14" t="s">
-        <v>300</v>
+        <v>291</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S27" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="T27" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V27" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="W27" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>58</v>
       </c>
@@ -3292,7 +3400,7 @@
         <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>60</v>
@@ -3301,53 +3409,59 @@
         <v>119</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H28" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I28" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="J28" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="K28" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="L28" s="4"/>
       <c r="M28" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>192</v>
+        <v>159</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>273</v>
+        <v>190</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>192</v>
+        <v>332</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="R28" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S28" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T28" s="14" t="s">
-        <v>174</v>
+        <v>266</v>
+      </c>
+      <c r="R28" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S28" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V28" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="W28" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>61</v>
       </c>
@@ -3362,53 +3476,55 @@
         <v>119</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H29" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="J29" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="K29" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="L29" s="4"/>
       <c r="M29" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>192</v>
+        <v>159</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="P29" s="8" t="s">
-        <v>192</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="P29" s="8"/>
       <c r="Q29" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="R29" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S29" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T29" s="14" t="s">
-        <v>174</v>
+        <v>266</v>
+      </c>
+      <c r="R29" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S29" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="T29" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="U29" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V29" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="W29" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>63</v>
       </c>
@@ -3423,53 +3539,55 @@
         <v>119</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H30" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H30" s="25"/>
+      <c r="I30" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="J30" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="K30" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="L30" s="4"/>
       <c r="M30" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="N30" s="8" t="s">
-        <v>192</v>
+        <v>159</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="P30" s="8" t="s">
-        <v>192</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="P30" s="8"/>
       <c r="Q30" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="R30" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S30" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T30" s="14" t="s">
-        <v>174</v>
+        <v>266</v>
+      </c>
+      <c r="R30" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S30" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="U30" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V30" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="W30" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>65</v>
       </c>
@@ -3484,51 +3602,53 @@
         <v>119</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H31" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H31" s="25"/>
+      <c r="I31" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="J31" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="K31" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="L31" s="4"/>
       <c r="M31" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="R31" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S31" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T31" s="14" t="s">
+      <c r="R31" s="8"/>
+      <c r="S31" s="8" t="s">
         <v>174</v>
       </c>
+      <c r="T31" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="U31" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V31" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="W31" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>67</v>
       </c>
@@ -3543,53 +3663,55 @@
         <v>119</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H32" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H32" s="25"/>
+      <c r="I32" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="J32" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="K32" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="L32" s="4"/>
       <c r="M32" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="N32" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="P32" s="8" t="s">
-        <v>183</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="P32" s="8"/>
       <c r="Q32" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="R32" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S32" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T32" s="14" t="s">
+      <c r="R32" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="S32" s="8" t="s">
         <v>174</v>
       </c>
+      <c r="T32" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="U32" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V32" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="W32" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
@@ -3604,53 +3726,55 @@
         <v>119</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H33" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H33" s="25"/>
+      <c r="I33" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="J33" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="K33" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="L33" s="4"/>
       <c r="M33" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="P33" s="8" t="s">
-        <v>183</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="P33" s="8"/>
       <c r="Q33" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="R33" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S33" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T33" s="14" t="s">
+      <c r="R33" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="S33" s="8" t="s">
         <v>174</v>
       </c>
+      <c r="T33" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="U33" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V33" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="W33" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
@@ -3658,7 +3782,7 @@
         <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>72</v>
@@ -3667,53 +3791,59 @@
         <v>119</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="H34" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I34" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="J34" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J34" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="K34" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="L34" s="4"/>
       <c r="M34" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="N34" s="8" t="s">
-        <v>192</v>
+        <v>159</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>277</v>
+        <v>190</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>192</v>
+        <v>332</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="R34" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S34" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T34" s="14" t="s">
-        <v>278</v>
+        <v>270</v>
+      </c>
+      <c r="R34" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S34" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="T34" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="U34" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V34" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="W34" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>73</v>
       </c>
@@ -3728,53 +3858,55 @@
         <v>119</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="H35" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H35" s="25"/>
+      <c r="I35" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="J35" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J35" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="K35" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="L35" s="4"/>
       <c r="M35" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="N35" s="8" t="s">
-        <v>192</v>
+        <v>159</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="P35" s="8" t="s">
-        <v>192</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="P35" s="8"/>
       <c r="Q35" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="R35" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S35" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T35" s="14" t="s">
-        <v>278</v>
+        <v>270</v>
+      </c>
+      <c r="R35" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S35" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="T35" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="U35" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V35" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="W35" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>75</v>
       </c>
@@ -3789,53 +3921,55 @@
         <v>119</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="H36" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H36" s="25"/>
+      <c r="I36" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="J36" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J36" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="K36" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="L36" s="4"/>
       <c r="M36" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="N36" s="8" t="s">
-        <v>192</v>
+        <v>159</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="P36" s="8" t="s">
-        <v>192</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="P36" s="8"/>
       <c r="Q36" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="R36" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S36" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T36" s="14" t="s">
-        <v>278</v>
+        <v>270</v>
+      </c>
+      <c r="R36" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S36" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="U36" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V36" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="W36" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>77</v>
       </c>
@@ -3850,35 +3984,37 @@
         <v>119</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="H37" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H37" s="25"/>
+      <c r="I37" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="J37" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="K37" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="M37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
-    </row>
-    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+    </row>
+    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>79</v>
       </c>
@@ -3893,47 +4029,49 @@
         <v>119</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="H38" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H38" s="25"/>
+      <c r="I38" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="J38" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="K38" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="L38" s="4"/>
       <c r="M38" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="O38" s="8"/>
+        <v>159</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>163</v>
+      </c>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
-      <c r="R38" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S38" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T38" s="14" t="s">
-        <v>174</v>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="U38" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V38" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="W38" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>81</v>
       </c>
@@ -3948,35 +4086,37 @@
         <v>119</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="H39" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H39" s="25"/>
+      <c r="I39" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="J39" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="K39" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="M39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>83</v>
       </c>
@@ -3984,7 +4124,7 @@
         <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>85</v>
@@ -3993,55 +4133,61 @@
         <v>119</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I40" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="J40" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L40" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="J40" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K40" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="M40" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="N40" s="8" t="s">
-        <v>192</v>
+        <v>159</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P40" s="8" t="s">
-        <v>282</v>
+        <v>190</v>
       </c>
       <c r="Q40" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="R40" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S40" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T40" s="14" t="s">
-        <v>285</v>
+        <v>190</v>
+      </c>
+      <c r="R40" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="S40" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="T40" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="U40" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V40" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="W40" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
         <v>86</v>
       </c>
@@ -4049,7 +4195,7 @@
         <v>84</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>87</v>
@@ -4058,55 +4204,61 @@
         <v>119</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G41" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="H41" s="19" t="s">
+      <c r="H41" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I41" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="I41" s="17" t="s">
-        <v>184</v>
-      </c>
       <c r="J41" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="K41" t="s">
-        <v>187</v>
-      </c>
-      <c r="L41" s="17" t="s">
-        <v>161</v>
+        <v>182</v>
+      </c>
+      <c r="K41" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="L41" t="s">
+        <v>185</v>
       </c>
       <c r="M41" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="N41" s="18" t="s">
-        <v>192</v>
+        <v>159</v>
+      </c>
+      <c r="N41" s="17" t="s">
+        <v>190</v>
       </c>
       <c r="O41" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q41" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="R41" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S41" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T41" s="14" t="s">
-        <v>286</v>
+        <v>190</v>
+      </c>
+      <c r="Q41" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="R41" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="S41" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="T41" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="U41" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V41" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="W41" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>88</v>
       </c>
@@ -4114,7 +4266,7 @@
         <v>89</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>90</v>
@@ -4123,55 +4275,61 @@
         <v>119</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="H42" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I42" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="J42" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J42" s="4" t="s">
-        <v>309</v>
-      </c>
       <c r="K42" s="4" t="s">
-        <v>192</v>
+        <v>302</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="N42" s="8" t="s">
-        <v>192</v>
+        <v>159</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>310</v>
+        <v>190</v>
       </c>
       <c r="P42" s="8" t="s">
-        <v>192</v>
+        <v>332</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="R42" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S42" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T42" s="14" t="s">
-        <v>311</v>
+        <v>303</v>
+      </c>
+      <c r="R42" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S42" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="T42" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="U42" s="5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V42" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="W42" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>91</v>
       </c>
@@ -4186,55 +4344,57 @@
         <v>119</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="H43" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H43" s="8"/>
+      <c r="I43" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="J43" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J43" s="4" t="s">
-        <v>309</v>
-      </c>
       <c r="K43" s="4" t="s">
-        <v>192</v>
+        <v>302</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="N43" s="8" t="s">
-        <v>192</v>
+        <v>159</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="P43" s="8" t="s">
-        <v>192</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="P43" s="8"/>
       <c r="Q43" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="R43" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S43" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T43" s="14" t="s">
-        <v>311</v>
+        <v>303</v>
+      </c>
+      <c r="R43" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S43" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="T43" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="U43" s="5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V43" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="W43" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>93</v>
       </c>
@@ -4249,55 +4409,57 @@
         <v>119</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="H44" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H44" s="8"/>
+      <c r="I44" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="J44" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J44" s="4" t="s">
-        <v>309</v>
-      </c>
       <c r="K44" s="4" t="s">
-        <v>192</v>
+        <v>302</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="N44" s="8" t="s">
-        <v>192</v>
+        <v>159</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="P44" s="8" t="s">
-        <v>192</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="P44" s="8"/>
       <c r="Q44" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="R44" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S44" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T44" s="14" t="s">
-        <v>311</v>
+        <v>303</v>
+      </c>
+      <c r="R44" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S44" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="T44" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="U44" s="5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V44" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="W44" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>95</v>
       </c>
@@ -4312,55 +4474,57 @@
         <v>119</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="H45" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H45" s="8"/>
+      <c r="I45" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="J45" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J45" s="4" t="s">
-        <v>309</v>
-      </c>
       <c r="K45" s="4" t="s">
-        <v>192</v>
+        <v>302</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="N45" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="O45" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="P45" s="8" t="s">
-        <v>183</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="P45" s="8"/>
       <c r="Q45" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="R45" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S45" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T45" s="14" t="s">
-        <v>311</v>
+      <c r="R45" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="S45" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="T45" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="U45" s="5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V45" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="W45" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>97</v>
       </c>
@@ -4375,55 +4539,57 @@
         <v>119</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="H46" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H46" s="8"/>
+      <c r="I46" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="J46" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J46" s="4" t="s">
-        <v>309</v>
-      </c>
       <c r="K46" s="4" t="s">
-        <v>192</v>
+        <v>302</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="N46" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="P46" s="8" t="s">
-        <v>183</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="P46" s="8"/>
       <c r="Q46" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="R46" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S46" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T46" s="14" t="s">
-        <v>311</v>
+      <c r="R46" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="S46" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="T46" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="U46" s="5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V46" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="W46" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>98</v>
       </c>
@@ -4438,55 +4604,57 @@
         <v>119</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="H47" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H47" s="8"/>
+      <c r="I47" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="J47" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J47" s="4" t="s">
-        <v>309</v>
-      </c>
       <c r="K47" s="4" t="s">
-        <v>192</v>
+        <v>302</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="N47" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="R47" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="S47" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="T47" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="O47" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="P47" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q47" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="R47" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="S47" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="T47" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="U47" s="5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U47" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="V47" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="W47" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>99</v>
       </c>
@@ -4494,7 +4662,7 @@
         <v>100</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>101</v>
@@ -4503,55 +4671,61 @@
         <v>119</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="H48" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I48" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="I48" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="J48" s="4" t="s">
-        <v>295</v>
+        <v>182</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>192</v>
+        <v>288</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="N48" s="8" t="s">
-        <v>192</v>
+        <v>159</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P48" s="8" t="s">
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="Q48" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="R48" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S48" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T48" s="14" t="s">
-        <v>291</v>
+        <v>190</v>
+      </c>
+      <c r="R48" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="S48" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="T48" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="U48" s="5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V48" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="W48" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>102</v>
       </c>
@@ -4559,7 +4733,7 @@
         <v>103</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>104</v>
@@ -4568,1114 +4742,1202 @@
         <v>119</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="H49" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I49" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="I49" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="J49" s="4" t="s">
-        <v>296</v>
+        <v>182</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>192</v>
+        <v>289</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="N49" s="8" t="s">
-        <v>192</v>
+        <v>159</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P49" s="8" t="s">
-        <v>289</v>
+        <v>190</v>
       </c>
       <c r="Q49" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="R49" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S49" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T49" s="14" t="s">
-        <v>292</v>
+        <v>190</v>
+      </c>
+      <c r="R49" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="S49" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="T49" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="U49" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V49" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="W49" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D50" s="4" t="s">
+      <c r="E50" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="P50" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="R50" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="S50" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="T50" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="U50" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="V50" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="W50" s="22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="N50" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="O50" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="P50" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q50" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="R50" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="S50" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="T50" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="U50" s="23" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>193</v>
-      </c>
       <c r="B51" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>123</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="H51" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I51" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="J51" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J51" s="4" t="s">
-        <v>192</v>
-      </c>
       <c r="K51" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="N51" s="8" t="s">
-        <v>192</v>
+        <v>159</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="P51" s="8" t="s">
-        <v>192</v>
+        <v>332</v>
       </c>
       <c r="Q51" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="R51" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S51" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T51" s="14" t="s">
-        <v>174</v>
+        <v>208</v>
+      </c>
+      <c r="R51" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S51" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="T51" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="U51" s="5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V51" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="W51" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>119</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="H52" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I52" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="I52" s="4" t="s">
+      <c r="J52" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J52" s="4" t="s">
-        <v>323</v>
-      </c>
       <c r="K52" s="4" t="s">
-        <v>192</v>
+        <v>314</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="N52" s="8" t="s">
-        <v>209</v>
+        <v>159</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>316</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="P52" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Q52" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="R52" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S52" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T52" s="14" t="s">
-        <v>174</v>
+        <v>190</v>
+      </c>
+      <c r="R52" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S52" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="T52" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="U52" s="5" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V52" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="W52" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>119</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="H53" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H53" s="8"/>
+      <c r="I53" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I53" s="4" t="s">
+      <c r="J53" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J53" s="4" t="s">
+      <c r="K53" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K53" s="4" t="s">
-        <v>192</v>
-      </c>
       <c r="L53" s="4" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="N53" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="O53" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="P53" s="8" t="s">
-        <v>183</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="P53" s="8"/>
       <c r="Q53" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="R53" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S53" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T53" s="14" t="s">
+      <c r="R53" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="S53" s="8" t="s">
         <v>174</v>
       </c>
+      <c r="T53" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="U53" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V53" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="W53" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>119</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="H54" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I54" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="J54" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J54" s="4" t="s">
-        <v>316</v>
-      </c>
       <c r="K54" s="4" t="s">
-        <v>192</v>
+        <v>308</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="N54" s="8" t="s">
-        <v>192</v>
+        <v>159</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="O54" s="8" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="P54" s="8" t="s">
-        <v>192</v>
+        <v>332</v>
       </c>
       <c r="Q54" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="R54" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S54" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T54" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="R54" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S54" s="8" t="s">
         <v>174</v>
       </c>
+      <c r="T54" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="U54" s="5" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V54" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="W54" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="E55" s="17" t="s">
         <v>119</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="H55" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I55" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="I55" s="17" t="s">
-        <v>184</v>
-      </c>
       <c r="J55" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="L55" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="M55" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="N55" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="O55" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="P55" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q55" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="R55" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="S55" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="T55" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="U55" s="20" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+      <c r="K55" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="O55" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="P55" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q55" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="R55" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="S55" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="T55" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="U55" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="V55" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="W55" s="19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>123</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="H56" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I56" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="I56" s="4" t="s">
+      <c r="J56" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J56" s="4" t="s">
-        <v>192</v>
-      </c>
       <c r="K56" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="N56" s="8" t="s">
-        <v>192</v>
+        <v>159</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="O56" s="8" t="s">
-        <v>264</v>
+        <v>190</v>
       </c>
       <c r="P56" s="8" t="s">
-        <v>192</v>
+        <v>332</v>
       </c>
       <c r="Q56" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="R56" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S56" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T56" s="14" t="s">
-        <v>326</v>
+        <v>257</v>
+      </c>
+      <c r="R56" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S56" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="T56" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="U56" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V56" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="W56" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>119</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G57" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="O57" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="P57" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q57" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="R57" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="S57" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="T57" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="U57" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="V57" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="W57" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G58" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="H58" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I58" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="I57" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="K57" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="L57" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="M57" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="N57" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="O57" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="P57" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q57" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="R57" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S57" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T57" s="14" t="s">
+      <c r="J58" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="O58" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="P58" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q58" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="R58" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="S58" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="U57" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="V57" s="5"/>
-      <c r="W57" s="5"/>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="L58" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="M58" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="N58" s="8" t="s">
+      <c r="T58" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="O58" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="P58" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q58" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="R58" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S58" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T58" s="14" t="s">
-        <v>174</v>
-      </c>
       <c r="U58" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="V58" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="W58" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="V58" s="5"/>
-      <c r="W58" s="5"/>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>223</v>
-      </c>
       <c r="B59" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>119</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G59" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="O59" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="P59" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q59" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="R59" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="S59" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="T59" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="U59" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="V59" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="W59" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="5"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G60" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L60" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="O60" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="P60" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q60" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="R60" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S60" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="T60" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="U60" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="V60" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="W60" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="C61" s="4"/>
+      <c r="D61" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G61" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="I61" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="I59" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="K59" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="L59" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="M59" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="N59" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="O59" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="P59" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q59" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="R59" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S59" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T59" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="U59" s="5" t="s">
+      <c r="J61" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L61" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="O61" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="P61" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="V59" s="5"/>
-      <c r="W59" s="5"/>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+      <c r="Q61" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="R61" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S61" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="T61" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="U61" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="V61" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="W61" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="5"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G62" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="I62" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="O62" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="P62" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q62" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="R62" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S62" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="T62" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="U62" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="V62" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="W62" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="5"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="G60" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="K60" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="L60" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="M60" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="N60" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="O60" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="P60" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q60" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="R60" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S60" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T60" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="U60" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="V60" s="5"/>
-      <c r="W60" s="5"/>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="G61" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="K61" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="L61" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="M61" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="N61" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="O61" s="27" t="s">
+      <c r="B63" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="P61" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q61" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="R61" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S61" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T61" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="U61" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="V61" s="5"/>
-      <c r="W61" s="5"/>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="G62" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="K62" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="L62" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="M62" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="N62" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="O62" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="P62" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q62" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="R62" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S62" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T62" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="U62" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="V62" s="5"/>
-      <c r="W62" s="5"/>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>123</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="G63" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="H63" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G63" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I63" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="I63" s="4" t="s">
+      <c r="J63" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J63" s="4" t="s">
+      <c r="K63" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K63" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="L63" s="4" t="s">
-        <v>161</v>
+      <c r="L63" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="N63" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="O63" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="P63" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q63" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="R63" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="S63" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="T63" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="O63" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="P63" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q63" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="R63" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S63" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T63" s="14" t="s">
-        <v>174</v>
-      </c>
       <c r="U63" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="V63" s="5"/>
-      <c r="W63" s="5"/>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V63" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="W63" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="X63" s="5"/>
+      <c r="Y63" s="5"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>123</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="G64" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="H64" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G64" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I64" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="I64" s="4" t="s">
+      <c r="J64" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J64" s="4" t="s">
+      <c r="K64" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K64" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="L64" s="4" t="s">
-        <v>161</v>
+      <c r="L64" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="N64" s="8" t="s">
-        <v>209</v>
+        <v>159</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="O64" s="8" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="P64" s="8" t="s">
-        <v>209</v>
+        <v>332</v>
       </c>
       <c r="Q64" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="R64" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S64" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T64" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="R64" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="S64" s="8" t="s">
         <v>174</v>
       </c>
+      <c r="T64" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="U64" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="V64" s="5"/>
-      <c r="W64" s="5"/>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="V64" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="W64" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5"/>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>123</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="G65" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="H65" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G65" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I65" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="I65" s="4" t="s">
+      <c r="J65" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J65" s="4" t="s">
+      <c r="K65" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K65" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="L65" s="4" t="s">
-        <v>161</v>
+      <c r="L65" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="N65" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="O65" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="P65" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q65" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="R65" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="S65" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="T65" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="O65" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="P65" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q65" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="R65" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S65" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T65" s="14" t="s">
-        <v>174</v>
-      </c>
       <c r="U65" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="V65" s="5"/>
-      <c r="W65" s="5"/>
+        <v>166</v>
+      </c>
+      <c r="V65" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="W65" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="X65" s="5"/>
+      <c r="Y65" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T65" xr:uid="{5AFA7E03-C988-479B-B08E-B46A33901233}">
+  <autoFilter ref="A1:V65" xr:uid="{5AFA7E03-C988-479B-B08E-B46A33901233}">
     <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5691,8 +5953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F731B1-F395-44C8-A5FA-27912FB095EB}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5710,10 +5972,10 @@
         <v>136</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -5721,13 +5983,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>116</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -5735,13 +5997,13 @@
         <v>14</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>117</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -5755,7 +6017,7 @@
         <v>122</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -5769,7 +6031,7 @@
         <v>124</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -5783,20 +6045,22 @@
         <v>125</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>254</v>
+      <c r="B7" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -5809,7 +6073,7 @@
         <v>128</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -5823,7 +6087,7 @@
         <v>129</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -5837,21 +6101,21 @@
         <v>130</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>253</v>
+      <c r="B11" s="23" t="s">
+        <v>248</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>133</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -5865,7 +6129,7 @@
         <v>134</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -5879,183 +6143,189 @@
         <v>135</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>141</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="D15" s="5" t="s">
-        <v>318</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>211</v>
+        <v>335</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>146</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="D18" s="5" t="s">
-        <v>328</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>148</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>149</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>234</v>
+        <v>245</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>231</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>147</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>315</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B23" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="D23" s="5"/>
+      <c r="C23" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="C24" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="B24" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="C25" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="B25" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>247</v>
+        <v>244</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>243</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -6079,15 +6349,15 @@
     <hyperlink ref="B3" r:id="rId13" xr:uid="{314A0927-1471-4219-9F92-31597DD504FD}"/>
     <hyperlink ref="B15" r:id="rId14" xr:uid="{3B79C388-1453-42AA-8C91-602D1F0DF82E}"/>
     <hyperlink ref="B20" r:id="rId15" xr:uid="{2A79D849-A986-483D-BE65-13666CB52103}"/>
-    <hyperlink ref="B23" location="Techupsell-Albama!A1" display="Techupsell-Albama!A1" xr:uid="{A8E03156-F188-4696-B4DC-22F65E3A5B65}"/>
-    <hyperlink ref="B24" location="Techupsell!A1" display="Techupsell!A1" xr:uid="{A492500D-24A6-40F5-A074-C040AC9F8C24}"/>
-    <hyperlink ref="B25" location="Techupsell_FPL!A1" display="Techupsell_FPL!A1" xr:uid="{B0DCDABD-E036-4544-AEC3-39505014F57A}"/>
-    <hyperlink ref="B26" r:id="rId16" xr:uid="{3B5ED568-3508-4426-B262-78CDC4B721F8}"/>
-    <hyperlink ref="B21" r:id="rId17" xr:uid="{70339B75-95E3-4656-8122-696EDE325407}"/>
-    <hyperlink ref="B11" r:id="rId18" xr:uid="{9AA24593-FA7B-4E49-A802-C98AF5D388C6}"/>
-    <hyperlink ref="B7" r:id="rId19" xr:uid="{7B3BF691-E3CD-4EDD-B490-738E2561773F}"/>
+    <hyperlink ref="B23" r:id="rId16" xr:uid="{A8E03156-F188-4696-B4DC-22F65E3A5B65}"/>
+    <hyperlink ref="B24" r:id="rId17" xr:uid="{A492500D-24A6-40F5-A074-C040AC9F8C24}"/>
+    <hyperlink ref="B25" r:id="rId18" xr:uid="{B0DCDABD-E036-4544-AEC3-39505014F57A}"/>
+    <hyperlink ref="B26" r:id="rId19" xr:uid="{3B5ED568-3508-4426-B262-78CDC4B721F8}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{70339B75-95E3-4656-8122-696EDE325407}"/>
+    <hyperlink ref="B11" r:id="rId21" xr:uid="{9AA24593-FA7B-4E49-A802-C98AF5D388C6}"/>
+    <hyperlink ref="B7" r:id="rId22" xr:uid="{7B3BF691-E3CD-4EDD-B490-738E2561773F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId23"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/inputData.xlsx
+++ b/src/test/resources/TestData/inputData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\train\Automation\BAU\BAU_Regression\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7061A041-BC39-41E4-AB16-025ED75B36B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C23A94-2CA1-4CA5-A4B0-95DE8021441F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C4BD471F-CC96-4C0B-AADD-EAF5A4C4939D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C4BD471F-CC96-4C0B-AADD-EAF5A4C4939D}"/>
   </bookViews>
   <sheets>
     <sheet name="inputData" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="336">
   <si>
     <t>Test ID</t>
   </si>
@@ -796,9 +796,6 @@
     <t>37421</t>
   </si>
   <si>
-    <t>5447558399986310</t>
-  </si>
-  <si>
     <t>VDI</t>
   </si>
   <si>
@@ -1045,13 +1042,13 @@
     <t>https://preprod.slwofc.ca/mail/ottawa</t>
   </si>
   <si>
-    <t>4524007136972670</t>
-  </si>
-  <si>
     <t>https://www.reghomeserve.com/en-us/lp/servline-water/?ncr=true</t>
   </si>
   <si>
     <t>https://www.reghomeserve.com/en-us/clp/display/pk-yellow-no-redirect/?ncr=true</t>
+  </si>
+  <si>
+    <t>Bovonto Street</t>
   </si>
 </sst>
 </file>
@@ -1669,11 +1666,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFA7E03-C988-479B-B08E-B46A33901233}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Y65"/>
+  <dimension ref="A1:W65"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N56" sqref="N56"/>
+      <selection pane="bottomLeft" activeCell="Q60" sqref="Q60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1682,9 +1679,11 @@
     <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="71.44140625" customWidth="1"/>
-    <col min="5" max="19" width="15.5546875" customWidth="1"/>
+    <col min="5" max="16" width="15.5546875" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="15.5546875" customWidth="1"/>
     <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
@@ -1710,7 +1709,7 @@
         <v>112</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I1" s="27" t="s">
         <v>113</v>
@@ -1734,7 +1733,7 @@
         <v>120</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>175</v>
@@ -1800,7 +1799,7 @@
       </c>
       <c r="P2" s="8"/>
       <c r="Q2" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>181</v>
@@ -1950,9 +1949,7 @@
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1988,10 +1985,10 @@
         <v>190</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R5" s="8" t="s">
         <v>190</v>
@@ -2009,7 +2006,7 @@
         <v>172</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
@@ -2054,7 +2051,7 @@
       </c>
       <c r="P6" s="8"/>
       <c r="Q6" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>190</v>
@@ -2072,7 +2069,7 @@
         <v>172</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
@@ -2117,7 +2114,7 @@
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R7" s="8" t="s">
         <v>190</v>
@@ -2135,7 +2132,7 @@
         <v>172</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -2145,9 +2142,7 @@
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
@@ -2158,7 +2153,7 @@
         <v>171</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>190</v>
@@ -2170,14 +2165,14 @@
         <v>109</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
         <v>159</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>163</v>
@@ -2201,10 +2196,10 @@
         <v>166</v>
       </c>
       <c r="V8" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="W8" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
@@ -2225,7 +2220,7 @@
         <v>171</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="3" t="s">
@@ -2235,14 +2230,14 @@
         <v>109</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
         <v>159</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O9" s="8" t="s">
         <v>163</v>
@@ -2264,10 +2259,10 @@
         <v>166</v>
       </c>
       <c r="V9" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="W9" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="W9" s="5" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
@@ -2288,7 +2283,7 @@
         <v>171</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="3" t="s">
@@ -2298,14 +2293,14 @@
         <v>109</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
         <v>159</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O10" s="8" t="s">
         <v>163</v>
@@ -2327,10 +2322,10 @@
         <v>166</v>
       </c>
       <c r="V10" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="W10" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -2340,9 +2335,7 @@
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
@@ -2378,7 +2371,7 @@
         <v>190</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q11" s="8" t="s">
         <v>215</v>
@@ -2396,10 +2389,10 @@
         <v>166</v>
       </c>
       <c r="V11" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="W11" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="W11" s="5" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
@@ -2459,10 +2452,10 @@
         <v>166</v>
       </c>
       <c r="V12" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="W12" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="W12" s="5" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
@@ -2522,10 +2515,10 @@
         <v>166</v>
       </c>
       <c r="V13" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="W13" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="W13" s="5" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
@@ -2535,9 +2528,7 @@
       <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
         <v>28</v>
       </c>
@@ -2567,7 +2558,7 @@
         <v>159</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O14" s="8" t="s">
         <v>206</v>
@@ -2591,10 +2582,10 @@
         <v>166</v>
       </c>
       <c r="V14" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="W14" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="W14" s="5" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
@@ -2632,7 +2623,7 @@
         <v>159</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O15" s="8" t="s">
         <v>206</v>
@@ -2654,10 +2645,10 @@
         <v>166</v>
       </c>
       <c r="V15" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="W15" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="W15" s="5" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
@@ -2695,7 +2686,7 @@
         <v>159</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O16" s="8" t="s">
         <v>206</v>
@@ -2717,10 +2708,10 @@
         <v>166</v>
       </c>
       <c r="V16" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="W16" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="W16" s="5" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
@@ -2730,9 +2721,7 @@
       <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
         <v>35</v>
       </c>
@@ -2768,10 +2757,10 @@
         <v>190</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R17" s="8" t="s">
         <v>190</v>
@@ -2786,10 +2775,10 @@
         <v>166</v>
       </c>
       <c r="V17" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="W17" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="W17" s="5" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
@@ -2834,7 +2823,7 @@
       </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R18" s="8" t="s">
         <v>190</v>
@@ -2849,10 +2838,10 @@
         <v>166</v>
       </c>
       <c r="V18" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="W18" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="W18" s="5" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
@@ -2862,9 +2851,7 @@
       <c r="B19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
         <v>40</v>
       </c>
@@ -2875,7 +2862,7 @@
         <v>171</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>190</v>
@@ -2887,7 +2874,7 @@
         <v>106</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4" t="s">
@@ -2900,10 +2887,10 @@
         <v>190</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="R19" s="8" t="s">
         <v>190</v>
@@ -2921,7 +2908,7 @@
         <v>172</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
@@ -2942,7 +2929,7 @@
         <v>171</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H20" s="25"/>
       <c r="I20" s="3" t="s">
@@ -2952,7 +2939,7 @@
         <v>106</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4" t="s">
@@ -2966,7 +2953,7 @@
       </c>
       <c r="P20" s="8"/>
       <c r="Q20" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="R20" s="8" t="s">
         <v>190</v>
@@ -2984,7 +2971,7 @@
         <v>172</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
@@ -3005,7 +2992,7 @@
         <v>171</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H21" s="25"/>
       <c r="I21" s="3" t="s">
@@ -3015,7 +3002,7 @@
         <v>106</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4" t="s">
@@ -3029,7 +3016,7 @@
       </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="R21" s="8" t="s">
         <v>190</v>
@@ -3047,7 +3034,7 @@
         <v>172</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
@@ -3068,7 +3055,7 @@
         <v>171</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H22" s="25"/>
       <c r="I22" s="3" t="s">
@@ -3125,7 +3112,7 @@
         <v>171</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H23" s="25"/>
       <c r="I23" s="3" t="s">
@@ -3170,7 +3157,7 @@
         <v>171</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H24" s="25"/>
       <c r="I24" s="3" t="s">
@@ -3204,9 +3191,7 @@
       <c r="B25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
         <v>53</v>
       </c>
@@ -3217,7 +3202,7 @@
         <v>171</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>190</v>
@@ -3229,7 +3214,7 @@
         <v>106</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4" t="s">
@@ -3242,10 +3227,10 @@
         <v>190</v>
       </c>
       <c r="P25" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>334</v>
+        <v>256</v>
       </c>
       <c r="R25" s="8" t="s">
         <v>190</v>
@@ -3260,10 +3245,10 @@
         <v>166</v>
       </c>
       <c r="V25" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="W25" s="5" t="s">
         <v>293</v>
-      </c>
-      <c r="W25" s="5" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
@@ -3284,7 +3269,7 @@
         <v>171</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H26" s="26"/>
       <c r="I26" s="3" t="s">
@@ -3294,7 +3279,7 @@
         <v>106</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4" t="s">
@@ -3308,7 +3293,7 @@
       </c>
       <c r="P26" s="8"/>
       <c r="Q26" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="R26" s="8" t="s">
         <v>190</v>
@@ -3323,10 +3308,10 @@
         <v>166</v>
       </c>
       <c r="V26" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="W26" s="5" t="s">
         <v>293</v>
-      </c>
-      <c r="W26" s="5" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
@@ -3347,7 +3332,7 @@
         <v>171</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H27" s="26"/>
       <c r="I27" s="3" t="s">
@@ -3357,7 +3342,7 @@
         <v>106</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4" t="s">
@@ -3371,7 +3356,7 @@
       </c>
       <c r="P27" s="8"/>
       <c r="Q27" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="R27" s="8" t="s">
         <v>190</v>
@@ -3386,10 +3371,10 @@
         <v>166</v>
       </c>
       <c r="V27" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="W27" s="5" t="s">
         <v>293</v>
-      </c>
-      <c r="W27" s="5" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
@@ -3399,9 +3384,7 @@
       <c r="B28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
         <v>60</v>
       </c>
@@ -3412,7 +3395,7 @@
         <v>171</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>190</v>
@@ -3424,7 +3407,7 @@
         <v>106</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4" t="s">
@@ -3437,10 +3420,10 @@
         <v>190</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="R28" s="8" t="s">
         <v>190</v>
@@ -3458,7 +3441,7 @@
         <v>172</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
@@ -3479,7 +3462,7 @@
         <v>171</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H29" s="25"/>
       <c r="I29" s="3" t="s">
@@ -3489,7 +3472,7 @@
         <v>106</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L29" s="4"/>
       <c r="M29" s="4" t="s">
@@ -3503,7 +3486,7 @@
       </c>
       <c r="P29" s="8"/>
       <c r="Q29" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="R29" s="8" t="s">
         <v>190</v>
@@ -3521,7 +3504,7 @@
         <v>172</v>
       </c>
       <c r="W29" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
@@ -3542,7 +3525,7 @@
         <v>171</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H30" s="25"/>
       <c r="I30" s="3" t="s">
@@ -3552,7 +3535,7 @@
         <v>106</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L30" s="4"/>
       <c r="M30" s="4" t="s">
@@ -3566,7 +3549,7 @@
       </c>
       <c r="P30" s="8"/>
       <c r="Q30" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="R30" s="8" t="s">
         <v>190</v>
@@ -3584,7 +3567,7 @@
         <v>172</v>
       </c>
       <c r="W30" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
@@ -3605,7 +3588,7 @@
         <v>171</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H31" s="25"/>
       <c r="I31" s="3" t="s">
@@ -3666,7 +3649,7 @@
         <v>171</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H32" s="25"/>
       <c r="I32" s="3" t="s">
@@ -3729,7 +3712,7 @@
         <v>171</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H33" s="25"/>
       <c r="I33" s="3" t="s">
@@ -3781,9 +3764,7 @@
       <c r="B34" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
         <v>72</v>
       </c>
@@ -3794,7 +3775,7 @@
         <v>171</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>190</v>
@@ -3806,7 +3787,7 @@
         <v>106</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L34" s="4"/>
       <c r="M34" s="4" t="s">
@@ -3819,10 +3800,10 @@
         <v>190</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="R34" s="8" t="s">
         <v>190</v>
@@ -3837,10 +3818,10 @@
         <v>166</v>
       </c>
       <c r="V34" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="W34" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="W34" s="5" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
@@ -3861,7 +3842,7 @@
         <v>171</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H35" s="25"/>
       <c r="I35" s="3" t="s">
@@ -3871,7 +3852,7 @@
         <v>106</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L35" s="4"/>
       <c r="M35" s="4" t="s">
@@ -3885,7 +3866,7 @@
       </c>
       <c r="P35" s="8"/>
       <c r="Q35" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="R35" s="8" t="s">
         <v>190</v>
@@ -3900,10 +3881,10 @@
         <v>166</v>
       </c>
       <c r="V35" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="W35" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="W35" s="5" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
@@ -3924,7 +3905,7 @@
         <v>171</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H36" s="25"/>
       <c r="I36" s="3" t="s">
@@ -3934,7 +3915,7 @@
         <v>106</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L36" s="4"/>
       <c r="M36" s="4" t="s">
@@ -3948,7 +3929,7 @@
       </c>
       <c r="P36" s="8"/>
       <c r="Q36" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="R36" s="8" t="s">
         <v>190</v>
@@ -3963,10 +3944,10 @@
         <v>166</v>
       </c>
       <c r="V36" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="W36" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="W36" s="5" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
@@ -3987,7 +3968,7 @@
         <v>171</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H37" s="25"/>
       <c r="I37" s="3" t="s">
@@ -4032,7 +4013,7 @@
         <v>171</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H38" s="25"/>
       <c r="I38" s="3" t="s">
@@ -4089,7 +4070,7 @@
         <v>171</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H39" s="25"/>
       <c r="I39" s="3" t="s">
@@ -4123,9 +4104,7 @@
       <c r="B40" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
         <v>85</v>
       </c>
@@ -4169,7 +4148,7 @@
         <v>190</v>
       </c>
       <c r="R40" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S40" s="8" t="s">
         <v>190</v>
@@ -4181,10 +4160,10 @@
         <v>166</v>
       </c>
       <c r="V40" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W40" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
@@ -4194,9 +4173,7 @@
       <c r="B41" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="16" t="s">
-        <v>159</v>
-      </c>
+      <c r="C41" s="16"/>
       <c r="D41" s="16" t="s">
         <v>87</v>
       </c>
@@ -4219,7 +4196,7 @@
         <v>182</v>
       </c>
       <c r="K41" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L41" t="s">
         <v>185</v>
@@ -4240,7 +4217,7 @@
         <v>190</v>
       </c>
       <c r="R41" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S41" s="8" t="s">
         <v>190</v>
@@ -4252,10 +4229,10 @@
         <v>166</v>
       </c>
       <c r="V41" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="W41" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
@@ -4265,9 +4242,7 @@
       <c r="B42" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>159</v>
-      </c>
+      <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
         <v>90</v>
       </c>
@@ -4278,7 +4253,7 @@
         <v>171</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>190</v>
@@ -4290,7 +4265,7 @@
         <v>106</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>190</v>
@@ -4305,10 +4280,10 @@
         <v>190</v>
       </c>
       <c r="P42" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>303</v>
+        <v>256</v>
       </c>
       <c r="R42" s="8" t="s">
         <v>190</v>
@@ -4323,10 +4298,10 @@
         <v>166</v>
       </c>
       <c r="V42" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="W42" s="5" t="s">
         <v>304</v>
-      </c>
-      <c r="W42" s="5" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
@@ -4347,7 +4322,7 @@
         <v>171</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="4" t="s">
@@ -4357,7 +4332,7 @@
         <v>106</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L43" s="4" t="s">
         <v>190</v>
@@ -4373,7 +4348,7 @@
       </c>
       <c r="P43" s="8"/>
       <c r="Q43" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R43" s="8" t="s">
         <v>190</v>
@@ -4388,10 +4363,10 @@
         <v>166</v>
       </c>
       <c r="V43" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="W43" s="5" t="s">
         <v>304</v>
-      </c>
-      <c r="W43" s="5" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
@@ -4412,7 +4387,7 @@
         <v>171</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="4" t="s">
@@ -4422,7 +4397,7 @@
         <v>106</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L44" s="4" t="s">
         <v>190</v>
@@ -4438,7 +4413,7 @@
       </c>
       <c r="P44" s="8"/>
       <c r="Q44" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R44" s="8" t="s">
         <v>190</v>
@@ -4453,10 +4428,10 @@
         <v>166</v>
       </c>
       <c r="V44" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="W44" s="5" t="s">
         <v>304</v>
-      </c>
-      <c r="W44" s="5" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
@@ -4477,7 +4452,7 @@
         <v>171</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H45" s="8"/>
       <c r="I45" s="4" t="s">
@@ -4487,7 +4462,7 @@
         <v>109</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L45" s="4" t="s">
         <v>190</v>
@@ -4518,10 +4493,10 @@
         <v>166</v>
       </c>
       <c r="V45" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="W45" s="5" t="s">
         <v>304</v>
-      </c>
-      <c r="W45" s="5" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
@@ -4542,7 +4517,7 @@
         <v>171</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="4" t="s">
@@ -4552,7 +4527,7 @@
         <v>109</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L46" s="4" t="s">
         <v>190</v>
@@ -4583,10 +4558,10 @@
         <v>166</v>
       </c>
       <c r="V46" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="W46" s="5" t="s">
         <v>304</v>
-      </c>
-      <c r="W46" s="5" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
@@ -4607,7 +4582,7 @@
         <v>171</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="4" t="s">
@@ -4617,7 +4592,7 @@
         <v>109</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L47" s="4" t="s">
         <v>190</v>
@@ -4648,10 +4623,10 @@
         <v>166</v>
       </c>
       <c r="V47" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="W47" s="5" t="s">
         <v>304</v>
-      </c>
-      <c r="W47" s="5" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
@@ -4661,9 +4636,7 @@
       <c r="B48" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>159</v>
-      </c>
+      <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
         <v>101</v>
       </c>
@@ -4674,7 +4647,7 @@
         <v>171</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H48" s="8" t="s">
         <v>190</v>
@@ -4686,7 +4659,7 @@
         <v>182</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L48" s="4" t="s">
         <v>190</v>
@@ -4707,7 +4680,7 @@
         <v>190</v>
       </c>
       <c r="R48" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S48" s="8" t="s">
         <v>190</v>
@@ -4719,22 +4692,20 @@
         <v>166</v>
       </c>
       <c r="V48" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W48" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>102</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>159</v>
-      </c>
+      <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
         <v>104</v>
       </c>
@@ -4745,7 +4716,7 @@
         <v>171</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H49" s="8" t="s">
         <v>190</v>
@@ -4757,7 +4728,7 @@
         <v>182</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L49" s="4" t="s">
         <v>190</v>
@@ -4778,7 +4749,7 @@
         <v>190</v>
       </c>
       <c r="R49" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="S49" s="8" t="s">
         <v>190</v>
@@ -4790,22 +4761,20 @@
         <v>166</v>
       </c>
       <c r="V49" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W49" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>188</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>159</v>
-      </c>
+      <c r="C50" s="5"/>
       <c r="D50" s="4" t="s">
         <v>189</v>
       </c>
@@ -4867,16 +4836,14 @@
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>191</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>159</v>
-      </c>
+      <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
         <v>198</v>
       </c>
@@ -4914,7 +4881,7 @@
         <v>190</v>
       </c>
       <c r="P51" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q51" s="8" t="s">
         <v>208</v>
@@ -4935,19 +4902,17 @@
         <v>172</v>
       </c>
       <c r="W51" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>193</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>159</v>
-      </c>
+      <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
         <v>196</v>
       </c>
@@ -4970,7 +4935,7 @@
         <v>109</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L52" s="4" t="s">
         <v>190</v>
@@ -4979,7 +4944,7 @@
         <v>159</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O52" s="8" t="s">
         <v>207</v>
@@ -5006,10 +4971,10 @@
         <v>172</v>
       </c>
       <c r="W52" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>195</v>
       </c>
@@ -5074,16 +5039,14 @@
         <v>169</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>203</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>159</v>
-      </c>
+      <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
         <v>199</v>
       </c>
@@ -5106,7 +5069,7 @@
         <v>106</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L54" s="4" t="s">
         <v>190</v>
@@ -5121,7 +5084,7 @@
         <v>190</v>
       </c>
       <c r="P54" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q54" s="8" t="s">
         <v>208</v>
@@ -5142,21 +5105,19 @@
         <v>172</v>
       </c>
       <c r="W54" s="5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>159</v>
-      </c>
+      <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E55" s="17" t="s">
         <v>119</v>
@@ -5177,7 +5138,7 @@
         <v>182</v>
       </c>
       <c r="K55" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L55" s="4" t="s">
         <v>190</v>
@@ -5198,7 +5159,7 @@
         <v>190</v>
       </c>
       <c r="R55" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="S55" s="8" t="s">
         <v>190</v>
@@ -5213,10 +5174,10 @@
         <v>172</v>
       </c>
       <c r="W55" s="19" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>210</v>
       </c>
@@ -5261,10 +5222,10 @@
         <v>190</v>
       </c>
       <c r="P56" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q56" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R56" s="8" t="s">
         <v>190</v>
@@ -5279,24 +5240,20 @@
         <v>166</v>
       </c>
       <c r="V56" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="W56" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="W56" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="5"/>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>218</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>159</v>
-      </c>
+      <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
         <v>230</v>
       </c>
@@ -5319,7 +5276,7 @@
         <v>182</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L57" s="5" t="s">
         <v>190</v>
@@ -5355,12 +5312,10 @@
         <v>172</v>
       </c>
       <c r="W57" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="5"/>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>219</v>
       </c>
@@ -5405,13 +5360,13 @@
         <v>190</v>
       </c>
       <c r="P58" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q58" s="8" t="s">
         <v>208</v>
       </c>
       <c r="R58" s="8" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="S58" s="8" t="s">
         <v>174</v>
@@ -5428,19 +5383,15 @@
       <c r="W58" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="5"/>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>220</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>159</v>
-      </c>
+      <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
         <v>233</v>
       </c>
@@ -5463,7 +5414,7 @@
         <v>182</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L59" s="5" t="s">
         <v>190</v>
@@ -5499,12 +5450,10 @@
         <v>172</v>
       </c>
       <c r="W59" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="5"/>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>221</v>
       </c>
@@ -5516,7 +5465,7 @@
         <v>240</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>171</v>
@@ -5525,7 +5474,7 @@
         <v>237</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I60" s="15" t="s">
         <v>105</v>
@@ -5549,10 +5498,10 @@
         <v>190</v>
       </c>
       <c r="P60" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q60" s="31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R60" s="8" t="s">
         <v>190</v>
@@ -5570,12 +5519,10 @@
         <v>172</v>
       </c>
       <c r="W60" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="X60" s="5"/>
-      <c r="Y60" s="5"/>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>222</v>
       </c>
@@ -5587,7 +5534,7 @@
         <v>241</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>171</v>
@@ -5596,7 +5543,7 @@
         <v>238</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I61" s="15" t="s">
         <v>105</v>
@@ -5620,10 +5567,10 @@
         <v>190</v>
       </c>
       <c r="P61" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q61" s="31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R61" s="8" t="s">
         <v>190</v>
@@ -5641,12 +5588,10 @@
         <v>172</v>
       </c>
       <c r="W61" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="X61" s="5"/>
-      <c r="Y61" s="5"/>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>223</v>
       </c>
@@ -5658,7 +5603,7 @@
         <v>242</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>171</v>
@@ -5667,13 +5612,13 @@
         <v>239</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I62" s="15" t="s">
         <v>105</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K62" s="4" t="s">
         <v>190</v>
@@ -5714,19 +5659,15 @@
       <c r="W62" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="X62" s="5"/>
-      <c r="Y62" s="5"/>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>224</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>159</v>
-      </c>
+      <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
         <v>246</v>
       </c>
@@ -5749,7 +5690,7 @@
         <v>106</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="L63" s="5" t="s">
         <v>190</v>
@@ -5758,19 +5699,19 @@
         <v>159</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="P63" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q63" s="31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R63" s="8" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="S63" s="8" t="s">
         <v>174</v>
@@ -5785,21 +5726,17 @@
         <v>172</v>
       </c>
       <c r="W63" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="X63" s="5"/>
-      <c r="Y63" s="5"/>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>225</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>159</v>
-      </c>
+      <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
         <v>249</v>
       </c>
@@ -5819,10 +5756,10 @@
         <v>105</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="L64" s="5" t="s">
         <v>190</v>
@@ -5837,16 +5774,16 @@
         <v>207</v>
       </c>
       <c r="P64" s="8" t="s">
-        <v>332</v>
+        <v>190</v>
       </c>
       <c r="Q64" s="8" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="R64" s="8" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="S64" s="8" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="T64" s="5" t="s">
         <v>165</v>
@@ -5858,21 +5795,17 @@
         <v>172</v>
       </c>
       <c r="W64" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="X64" s="5"/>
-      <c r="Y64" s="5"/>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>226</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>159</v>
-      </c>
+      <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
         <v>247</v>
       </c>
@@ -5910,10 +5843,10 @@
         <v>163</v>
       </c>
       <c r="P65" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q65" s="8" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="R65" s="8" t="s">
         <v>181</v>
@@ -5933,8 +5866,6 @@
       <c r="W65" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="X65" s="5"/>
-      <c r="Y65" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:V65" xr:uid="{5AFA7E03-C988-479B-B08E-B46A33901233}">
@@ -5953,8 +5884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F731B1-F395-44C8-A5FA-27912FB095EB}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5975,7 +5906,7 @@
         <v>151</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -6053,7 +5984,7 @@
         <v>52</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>127</v>
@@ -6179,7 +6110,7 @@
         <v>209</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>231</v>
@@ -6249,13 +6180,13 @@
         <v>245</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C21" s="24" t="s">
         <v>231</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -6291,7 +6222,7 @@
         <v>235</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C24" s="24" t="s">
         <v>238</v>
@@ -6305,7 +6236,7 @@
         <v>236</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C25" s="24" t="s">
         <v>239</v>
@@ -6325,7 +6256,7 @@
         <v>237</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>252</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
